--- a/data/QT Training Data.xlsx
+++ b/data/QT Training Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/544495d6dcfbd9ff/桌面/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QT Model Training\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{40990B1D-3DC2-4741-9533-FF7826E4557F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68096F54-E117-47A0-ABAE-C0BC1E04DD6A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBF4F62-207E-4E33-8373-EB5104C944AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C04D32E6-5986-4A3B-9C97-ED71BAC389A5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>開盤日期</t>
   </si>
@@ -281,13 +281,134 @@
   <si>
     <t>意義</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+  </si>
+  <si>
+    <t>AMZN</t>
+  </si>
+  <si>
+    <t>[46.1, 45.6, 45.9, 35.5, 27.8]</t>
+  </si>
+  <si>
+    <t>[11.4, 10.5, 10.9, 12.6, 15.8]</t>
+  </si>
+  <si>
+    <t>[55.5, 55.1, 59.5, 58.7, 48.0, 43.1, 61.6, 77.1, 77.5, 82.9, 80.7, 78.2, 69.3, 55.8, 57.2, 58.0, 48.9, 48.7, 53.5, 62.6, 56.0, 54.4, 51.6, 44.4, 40.3, 46.1, 45.6, 45.9, 35.5, 27.8]</t>
+  </si>
+  <si>
+    <t>[15.3, 15.5, 16.7, 17.2, 15.1, 14.5, 13.4, 16.3, 18.7, 21.2, 23.9, 26.2, 25.6, 25.2, 24.8, 24.4, 24.6, 24.9, 25.6, 24.9, 25.2, 22.1, 18.5, 15.9, 13.8, 11.4, 10.5, 10.9, 12.6, 15.8]</t>
+  </si>
+  <si>
+    <t>[50.5, 48.0, 40.4, 60.0, 71.5, 68.3, 60.3, 59.8, 63.7, 61.4, 55.2, 52.1, 56.2, 51.6, 54.9, 61.8, 56.9, 58.8, 49.1, 54.1, 56.0, 52.7, 49.6, 52.9, 52.7, 44.6, 30.5, 31.5, 28.0, 27.9, 32.7, 35.3, 41.0, 31.0, 28.2, 32.8, 40.5, 44.5, 36.4, 49.2, 45.4, 46.8, 43.3, 38.2, 46.1, 51.6, 45.2, 51.7, 53.4, 55.2, 54.1, 52.7, 57.4, 69.7, 77.9, 73.7, 75.2, 69.6, 68.7, 68.0, 72.3, 66.2, 58.9, 55.1, 52.4, 45.4, 49.9, 27.7, 19.5, 29.2, 32.3, 36.5, 39.6, 35.7, 35.5, 37.6, 40.4, 43.8, 43.0, 58.0, 62.2, 69.9, 58.2, 44.1, 37.4, 36.4, 39.4, 39.3, 40.3, 49.6, 55.5, 55.1, 59.5, 58.7, 48.0, 43.1, 61.6, 77.1, 77.5, 82.9, 80.7, 78.2, 69.3, 55.8, 57.2, 58.0, 48.9, 48.7, 53.5, 62.6, 56.0, 54.4, 51.6, 44.4, 40.3, 46.1, 45.6, 45.9, 35.5, 27.8]</t>
+  </si>
+  <si>
+    <t>[12.9, 9.3, 7.1, 7.8, 9.4, 11.5, 12.7, 13.1, 14.6, 16.4, 16.9, 16.3, 17.1, 17.7, 18.9, 20.6, 20.8, 21.2, 18.5, 16.3, 15.9, 15.2, 13.8, 11.9, 11.9, 12.0, 14.4, 17.3, 20.0, 22.1, 23.7, 25.3, 28.1, 31.0, 34.6, 38.1, 40.2, 42.3, 44.1, 44.6, 43.6, 41.5, 39.0, 37.4, 35.4, 32.4, 29.7, 26.4, 23.3, 21.3, 20.8, 20.4, 19.7, 22.3, 25.4, 28.3, 30.8, 32.1, 33.7, 36.0, 39.1, 41.5, 41.3, 40.1, 38.4, 37.3, 35.9, 34.8, 34.0, 32.8, 31.3, 29.5, 27.8, 26.9, 25.1, 23.9, 23.4, 23.0, 23.1, 23.4, 25.4, 24.5, 21.5, 18.7, 17.6, 17.0, 16.4, 15.6, 16.3, 15.5, 15.3, 15.5, 16.7, 17.2, 15.1, 14.5, 13.4, 16.3, 18.7, 21.2, 23.9, 26.2, 25.6, 25.2, 24.8, 24.4, 24.6, 24.9, 25.6, 24.9, 25.2, 22.1, 18.5, 15.9, 13.8, 11.4, 10.5, 10.9, 12.6, 15.8]</t>
+  </si>
+  <si>
+    <t>RDDT</t>
+  </si>
+  <si>
+    <t>[21.8, 9.5, 9.0, 11.0, 8.1]</t>
+  </si>
+  <si>
+    <t>[33.1, 37.0, 40.4, 45.6, 50.9]</t>
+  </si>
+  <si>
+    <t>[52.6, 41.2, 47.9, 47.5, 42.6, 56.6, 67.1, 79.5, 78.1, 74.6, 61.1, 59.3, 67.6, 68.4, 51.5, 52.7, 45.1, 39.3, 43.0, 38.7, 35.5, 24.5, 22.7, 22.4, 22.3, 21.8, 9.5, 9.0, 11.0, 8.1]</t>
+  </si>
+  <si>
+    <t>[38.6, 35.1, 32.0, 28.4, 24.4, 21.2, 19.9, 21.9, 26.1, 28.4, 27.2, 26.5, 27.1, 28.6, 27.8, 28.1, 28.0, 28.5, 29.3, 29.2, 28.5, 27.6, 27.2, 27.4, 30.2, 33.1, 37.0, 40.4, 45.6, 50.9]</t>
+  </si>
+  <si>
+    <t>[92.6, 82.1, 73.8, 66.0, 59.5, 62.7, 54.9, 49.5, 55.9, 52.7, 47.6, 42.3, 42.5, 46.0, 43.1, 57.3, 72.2, 72.6, 68.9, 71.0, 72.0, 77.9, 75.4, 70.8, 69.4, 56.3, 51.7, 46.4, 55.1, 51.0, 32.7, 23.6, 24.6, 22.3, 19.3, 21.1, 17.1, 25.4, 24.0, 32.8, 31.1, 34.8, 29.4, 27.0, 35.9, 52.1, 47.6, 45.9, 56.0, 57.4, 55.7, 49.5, 47.7, 52.7, 54.5, 44.0, 48.8, 45.4, 46.9, 49.4, 54.3, 50.8, 40.5, 39.9, 40.1, 40.2, 47.1, 37.1, 39.5, 53.7, 59.9, 60.8, 60.1, 59.1, 57.1, 59.1, 69.1, 71.5, 76.9, 77.7, 77.7, 78.9, 71.4, 62.9, 53.8, 65.0, 62.2, 58.8, 59.4, 54.1, 52.6, 41.2, 47.9, 47.5, 42.6, 56.6, 67.1, 79.5, 78.1, 74.6, 61.1, 59.3, 67.6, 68.4, 51.5, 52.7, 45.1, 39.3, 43.0, 38.7, 35.5, 24.5, 22.7, 22.4, 22.3, 21.8, 9.5, 9.0, 11.0, 8.1]</t>
+  </si>
+  <si>
+    <t>[65.9, 69.1, 72.4, 71.4, 69.9, 67.1, 63.9, 59.2, 54.4, 48.7, 44.0, 38.1, 33.0, 27.4, 21.0, 15.7, 16.6, 19.1, 20.4, 22.2, 24.5, 27.2, 30.5, 32.0, 33.1, 32.7, 31.6, 31.9, 32.5, 33.1, 32.0, 31.8, 32.8, 33.3, 33.9, 34.9, 36.8, 39.4, 41.3, 44.8, 48.4, 50.4, 52.8, 56.8, 56.3, 52.7, 50.1, 48.5, 44.3, 41.1, 37.0, 32.9, 30.2, 27.1, 23.5, 21.1, 18.1, 13.8, 12.8, 13.0, 11.3, 9.1, 10.5, 11.8, 12.5, 14.1, 13.6, 16.7, 19.9, 20.7, 20.8, 21.4, 21.8, 22.7, 24.7, 26.3, 27.8, 29.4, 31.2, 33.9, 37.4, 38.7, 39.8, 40.8, 40.6, 41.0, 41.3, 41.3, 40.8, 40.1, 38.6, 35.1, 32.0, 28.4, 24.4, 21.2, 19.9, 21.9, 26.1, 28.4, 27.2, 26.5, 27.1, 28.6, 27.8, 28.1, 28.0, 28.5, 29.3, 29.2, 28.5, 27.6, 27.2, 27.4, 30.2, 33.1, 37.0, 40.4, 45.6, 50.9]</t>
+  </si>
+  <si>
+    <t>MGM</t>
+  </si>
+  <si>
+    <t>[40.1, 46.7, 63.0, 54.6, 62.4]</t>
+  </si>
+  <si>
+    <t>[27.3, 25.2, 25.9, 26.2, 26.2]</t>
+  </si>
+  <si>
+    <t>[62.4, 61.9, 64.1, 56.6, 43.3, 40.6, 37.1, 35.8, 30.1, 42.7, 34.2, 32.8, 29.6, 31.1, 39.0, 32.0, 28.7, 32.8, 37.8, 36.2, 39.0, 37.2, 41.4, 37.9, 43.5, 40.1, 46.7, 63.0, 54.6, 62.4]</t>
+  </si>
+  <si>
+    <t>[53.2, 52.4, 49.7, 46.3, 41.5, 37.4, 32.9, 29.0, 27.1, 25.3, 24.3, 24.4, 23.8, 23.6, 21.6, 20.9, 21.4, 21.8, 22.2, 21.9, 23.2, 24.8, 24.5, 26.8, 28.3, 27.3, 25.2, 25.9, 26.2, 26.2]</t>
+  </si>
+  <si>
+    <t>[41.8, 42.2, 48.9, 54.0, 67.0, 72.5, 73.5, 81.0, 84.6, 84.4, 73.5, 61.5, 54.3, 54.7, 50.1, 45.6, 47.7, 44.6, 25.4, 34.8, 30.4, 17.3, 25.1, 23.6, 22.0, 27.4, 31.0, 32.4, 45.6, 53.5, 43.2, 46.3, 51.2, 39.1, 40.5, 36.9, 28.6, 30.2, 30.7, 30.8, 38.3, 37.4, 27.1, 18.0, 27.3, 37.5, 35.8, 43.8, 42.2, 48.4, 47.2, 41.4, 45.7, 53.1, 47.6, 47.8, 52.5, 51.1, 55.5, 49.6, 51.5, 50.8, 50.1, 46.6, 45.7, 51.7, 53.4, 36.5, 53.3, 54.1, 63.5, 68.5, 66.8, 66.6, 65.7, 65.3, 67.0, 72.8, 76.0, 77.6, 83.4, 87.0, 83.4, 85.1, 72.9, 62.0, 62.4, 64.7, 67.0, 60.4, 62.4, 61.9, 64.1, 56.6, 43.3, 40.6, 37.1, 35.8, 30.1, 42.7, 34.2, 32.8, 29.6, 31.1, 39.0, 32.0, 28.7, 32.8, 37.8, 36.2, 39.0, 37.2, 41.4, 37.9, 43.5, 40.1, 46.7, 63.0, 54.6, 62.4]</t>
+  </si>
+  <si>
+    <t>[44.8, 44.0, 41.4, 39.3, 38.5, 38.9, 39.5, 41.4, 44.0, 45.6, 45.8, 46.6, 45.9, 43.7, 42.0, 40.9, 40.4, 39.8, 40.4, 38.4, 36.6, 35.4, 33.8, 31.5, 31.3, 31.9, 33.8, 36.2, 36.8, 36.8, 37.8, 38.1, 35.9, 34.7, 33.1, 29.9, 26.9, 25.3, 23.4, 21.6, 18.9, 16.7, 18.2, 21.8, 23.1, 23.8, 25.3, 25.6, 25.9, 25.3, 23.9, 22.8, 22.6, 21.5, 22.8, 24.5, 23.6, 20.6, 20.2, 20.9, 20.4, 21.9, 23.1, 25.2, 27.5, 28.8, 28.0, 28.1, 26.3, 24.3, 24.4, 25.1, 25.9, 26.4, 26.5, 26.1, 25.4, 25.9, 27.9, 30.5, 35.0, 39.2, 44.3, 48.1, 50.4, 51.1, 50.7, 50.7, 51.7, 51.9, 53.2, 52.4, 49.7, 46.3, 41.5, 37.4, 32.9, 29.0, 27.1, 25.3, 24.3, 24.4, 23.8, 23.6, 21.6, 20.9, 21.4, 21.8, 22.2, 21.9, 23.2, 24.8, 24.5, 26.8, 28.3, 27.3, 25.2, 25.9, 26.2, 26.2]</t>
+  </si>
+  <si>
+    <t>MSTR</t>
+  </si>
+  <si>
+    <t>[37.3, 26.5, 19.5, 16.7, 34.0]</t>
+  </si>
+  <si>
+    <t>[15.6, 17.8, 20.0, 23.2, 24.7]</t>
+  </si>
+  <si>
+    <t>[31.3, 34.7, 28.2, 22.0, 22.3, 29.2, 40.8, 46.3, 44.8, 56.3, 49.2, 47.8, 56.3, 65.7, 58.0, 59.5, 52.7, 54.5, 54.9, 53.4, 47.5, 52.3, 47.8, 36.3, 45.4, 37.3, 26.5, 19.5, 16.7, 34.0]</t>
+  </si>
+  <si>
+    <t>[17.1, 18.4, 19.5, 23.4, 28.4, 31.8, 33.5, 34.3, 34.5, 34.4, 33.2, 33.5, 31.8, 32.0, 31.2, 30.6, 29.1, 24.8, 20.7, 18.2, 16.2, 15.8, 16.1, 15.7, 15.7, 15.6, 17.8, 20.0, 23.2, 24.7]</t>
+  </si>
+  <si>
+    <t>[39.9, 33.8, 34.2, 40.5, 39.7, 39.4, 39.5, 29.1, 29.8, 26.3, 31.2, 29.7, 32.9, 38.7, 37.8, 46.4, 41.6, 44.2, 34.3, 39.5, 38.8, 41.0, 56.0, 56.1, 46.7, 48.5, 47.5, 32.3, 39.8, 49.1, 48.2, 54.6, 57.2, 58.4, 58.7, 49.6, 43.9, 42.2, 40.5, 46.3, 43.6, 48.8, 42.2, 37.9, 41.7, 37.2, 26.2, 28.2, 26.4, 36.9, 32.7, 33.0, 31.7, 33.8, 36.3, 32.9, 39.7, 32.7, 31.8, 28.7, 31.6, 28.0, 23.0, 18.3, 19.1, 26.6, 26.7, 17.2, 16.9, 24.5, 18.7, 23.9, 21.7, 21.2, 29.1, 34.9, 39.4, 40.1, 44.4, 41.0, 48.9, 54.1, 54.0, 39.5, 47.0, 40.8, 38.7, 46.1, 38.7, 29.5, 31.3, 34.7, 28.2, 22.0, 22.3, 29.2, 40.8, 46.3, 44.8, 56.3, 49.2, 47.8, 56.3, 65.7, 58.0, 59.5, 52.7, 54.5, 54.9, 53.4, 47.5, 52.3, 47.8, 36.3, 45.4, 37.3, 26.5, 19.5, 16.7, 34.0]</t>
+  </si>
+  <si>
+    <t>[40.5, 42.4, 44.0, 41.7, 38.0, 34.2, 30.3, 31.5, 33.6, 37.3, 39.7, 41.6, 42.4, 41.8, 41.5, 38.3, 36.1, 34.9, 34.0, 32.6, 31.2, 28.4, 27.0, 25.5, 23.7, 22.2, 21.9, 20.5, 19.2, 19.7, 17.9, 17.2, 17.7, 19.5, 21.3, 20.9, 19.2, 17.1, 16.9, 16.5, 15.2, 14.5, 14.5, 16.1, 17.3, 18.9, 21.8, 24.4, 27.4, 30.5, 33.0, 35.5, 38.0, 39.8, 41.6, 45.2, 47.7, 49.1, 53.1, 54.9, 55.1, 55.0, 55.1, 57.7, 60.1, 61.3, 62.1, 64.2, 66.4, 68.0, 69.9, 71.0, 69.2, 69.3, 68.0, 66.0, 62.8, 58.4, 53.7, 49.8, 45.1, 39.8, 35.0, 30.4, 25.8, 22.2, 20.6, 16.3, 15.3, 15.8, 17.1, 18.4, 19.5, 23.4, 28.4, 31.8, 33.5, 34.3, 34.5, 34.4, 33.2, 33.5, 31.8, 32.0, 31.2, 30.6, 29.1, 24.8, 20.7, 18.2, 16.2, 15.8, 16.1, 15.7, 15.7, 15.6, 17.8, 20.0, 23.2, 24.7]</t>
+  </si>
+  <si>
+    <t>120天收盤價序列</t>
+  </si>
+  <si>
+    <t>[119.6, 116.37, 123.74, 119.83, 120.44, 116.31, 118.15, 113.94, 115.04, 124.9, 129.35, 125.0, 125.6, 130.16, 133.72, 133.97, 138.0, 138.83, 134.44, 138.07, 135.22, 144.37, 143.28, 146.11, 146.67, 139.96, 137.32, 136.07, 128.82, 130.7, 129.77, 131.2, 132.48, 135.2, 135.91, 134.61, 138.32, 140.6, 145.07, 144.97, 129.69, 132.69, 132.49, 134.08, 135.85, 136.92, 127.42, 127.13, 123.66, 125.02, 122.81, 126.18, 131.7, 126.99, 123.11, 122.14, 120.94, 118.29, 117.83, 76.54, 73.74, 79.85, 77.97, 77.74, 74.39, 73.51, 72.79, 73.06, 71.24, 68.42, 70.05, 71.25, 72.11, 75.23, 76.17, 76.66, 74.2, 80.37, 81.62, 81.4, 77.28, 77.42, 78.62, 77.99, 76.36, 78.6, 78.77, 78.85, 77.26, 80.44, 79.14, 78.46, 79.76, 80.42, 79.43, 76.8, 76.04, 77.81, 76.84, 79.12, 82.1, 86.05, 87.02, 86.58, 87.56, 86.26, 89.18, 89.99, 89.04, 91.82, 93.61, 94.16, 88.8, 86.73, 84.98, 85.03, 84.99, 86.15, 84.81, 84.63]</t>
+  </si>
+  <si>
+    <t>[26.22, 25.4, 25.8, 25.54, 25.51, 26.2, 27.2, 26.6, 26.5, 26.29, 26.3, 26.59, 26.12, 26.37, 26.93, 26.77, 26.96, 26.34, 27.06, 27.25, 27.17, 27.61, 28.05, 27.75, 28.24, 27.77, 27.89, 27.48, 27.56, 27.38, 27.3, 27.51, 27.43, 27.43, 27.08, 27.52, 27.09, 25.24, 24.18, 23.64, 23.19, 24.3, 24.06, 23.62, 23.38, 23.21, 23.82, 24.12, 24.13, 24.56, 24.82, 24.08, 24.14, 23.52, 23.78, 23.94, 23.6, 23.11, 23.47, 22.16, 22.67, 23.33, 23.75, 23.87, 23.24, 23.18, 22.26, 22.58, 22.68, 25.71, 27.96, 28.78, 30.27, 30.21, 30.04, 29.84, 29.42, 30.17, 29.89, 30.03, 30.13, 30.92, 31.64, 31.71, 31.82, 31.93, 32.01, 31.51, 31.72, 31.54, 30.84, 30.97, 30.86, 31.15, 31.68, 31.41, 30.31, 29.59, 30.68, 30.96, 30.94, 31.22, 31.3, 31.61, 31.71, 31.65, 31.83, 31.3, 31.25, 31.89, 32.0, 31.8, 31.65, 32.0, 31.71, 32.15, 32.0, 32.64, 31.5, 31.47]</t>
+  </si>
+  <si>
+    <t>[177.52, 176.63, 177.04, 179.39, 180.2, 177.99, 180.04, 179.3, 182.0, 180.27, 178.61, 182.35, 184.36, 183.28, 183.88, 184.06, 186.1, 186.26, 184.18, 184.13, 183.6, 184.14, 191.97, 189.63, 187.63, 188.73, 190.87, 189.28, 189.43, 183.84, 186.67, 182.7, 185.62, 187.39, 187.57, 193.64, 193.69, 192.9, 194.06, 191.11, 190.66, 187.75, 187.98, 190.14, 185.37, 186.3, 184.79, 184.71, 182.79, 180.19, 178.01, 180.06, 178.87, 173.94, 169.85, 168.33, 161.07, 164.68, 168.58, 166.36, 169.31, 167.62, 171.4, 176.9, 176.78, 177.83, 179.0, 182.93, 182.48, 182.66, 186.0, 185.8, 186.75, 188.2, 188.08, 185.08, 182.77, 180.63, 182.46, 182.3, 180.78, 178.78, 180.06, 181.58, 181.83, 188.11, 188.15, 188.94, 188.16, 189.26, 186.38, 182.62, 184.8, 184.2, 180.77, 182.19, 181.98, 182.41, 179.99, 179.28, 180.07, 184.75, 189.07, 193.13, 195.29, 199.12, 201.07, 197.76, 198.87, 196.07, 190.65, 191.2, 189.97, 191.63, 192.0, 190.54, 194.75, 198.01, 201.47, 205.79]</t>
+  </si>
+  <si>
+    <t>[203.51, 204.59, 203.97, 202.18, 199.88, 200.31, 206.4, 208.84, 207.63, 207.89, 212.04, 213.2, 211.66, 230.74, 232.3, 234.81, 234.01, 239.78, 239.4, 240.62, 241.22, 251.6, 251.26, 249.69, 252.17, 255.07, 252.72, 252.18, 247.67, 246.41, 247.02, 244.2, 243.39, 245.38, 246.27, 246.29, 251.35, 246.97, 245.3, 242.05, 237.34, 244.48, 246.03, 251.55, 251.72, 253.62, 256.85, 251.18, 252.37, 253.56, 260.34, 269.75, 268.25, 274.99, 281.72, 281.64, 283.93, 277.88, 284.56, 285.15, 279.52, 290.4, 291.55, 287.24, 278.94, 276.8, 285.41, 284.77, 292.8, 289.79, 299.45, 318.26, 323.43, 320.07, 319.91, 314.91, 315.81, 320.41, 318.18, 321.88, 314.45, 317.75, 321.0, 313.7, 310.52, 309.32, 307.73, 298.06, 303.75, 308.61, 311.33, 315.68, 315.67, 314.96, 314.39, 314.55, 313.8, 315.32, 317.32, 314.55, 322.43, 326.01, 329.14, 332.73, 336.43, 336.31, 333.16, 330.34, 322.16, 328.38, 330.84, 328.43, 333.59, 335.0, 336.28, 338.66, 338.53, 344.9, 340.7, 333.34]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[48.15, 48.37, 48.55, 47.7, 48.26, 50.69, 50.46, 50.1, 50.84, 50.77, 49.81, 49.09, 49.06, 50.2, 49.93, 50.25, 49.58, 48.96, 50.29, 49.4, 49.65, 49.45, 49.37, 50.89, 50.55, 51.02, 50.84, 49.34, 49.18, 50.4, 49.64, 50.03, 49.0, 49.87, 49.65, 50.63, 49.81, 50.28, 48.99, 48.23, 51.04, 51.91, 55.22, 54.53, 52.16, 53.76, 54.19, 53.09, 55.27, 54.64, 54.35, 53.49, 52.67, 53.03, 49.76, 53.47, 48.28, 49.8, 48.64, 48.99, 49.03, 49.51, 49.83, 49.1, 48.5, 47.07, 47.16, 47.18, 46.81, 48.83, 49.26, 50.78, 50.86, 50.82, 50.03, 50.14, 51.18, 51.68, 52.08, 50.88, 51.23, 52.45, 53.22, 52.57, 52.42, 52.72, 52.37, 52.56, 52.12, 53.03, 53.17, 53.09, 52.7, 52.31, 51.63, 50.59, 51.35, 52.99, 54.04, 53.75, 54.93, 54.71, 54.63, 54.04, 53.67, 55.0, 54.76, 53.03, 55.43, 55.19, 53.75, 52.93, 52.48, 51.86, 53.18, 52.65, 53.45, 53.67, 53.46, 52.48]</t>
+  </si>
+  <si>
+    <t>[117.34, 119.95, 118.28, 118.49, 114.85, 117.52, 124.81, 124.76, 122.7, 126.88, 124.59, 128.47, 133.46, 129.79, 127.69, 128.47, 131.79, 132.84, 132.96, 133.31, 137.25, 135.84, 135.38, 135.54, 135.18, 136.84, 132.22, 133.13, 132.04, 135.06, 141.56, 138.52, 134.07, 133.5, 122.69, 126.27, 124.99, 125.97, 126.43, 126.8, 128.24, 133.28, 138.56, 134.49, 132.92, 134.84, 133.16, 128.0, 129.24, 127.71, 128.49, 131.72, 133.74, 113.0, 113.72, 107.66, 104.13, 102.24, 101.28, 106.84, 105.36, 104.68, 104.34, 101.27, 102.28, 101.27, 101.73, 97.37, 91.7, 89.25, 90.58, 91.07, 92.73, 95.03, 93.79, 93.7, 92.1, 95.21, 96.28, 97.64, 99.0, 94.36, 94.34, 88.51, 86.96, 87.44, 85.91, 83.91, 81.94, 81.98, 80.99, 81.88, 82.22, 81.52, 81.81, 81.03, 80.95, 81.04, 75.83, 76.42, 73.89, 73.27, 76.72, 84.8, 82.87, 84.65, 87.28, 78.84, 75.68, 74.7, 74.12, 74.01, 72.14, 75.27, 75.73, 65.76, 67.48, 65.4, 63.07, 60.57]</t>
+  </si>
+  <si>
+    <t>[231.03, 231.49, 228.01, 223.81, 221.95, 228.84, 227.94, 228.71, 229.12, 231.6, 229.0, 225.34, 225.99, 235.68, 232.33, 235.84, 238.24, 230.33, 229.95, 228.15, 231.43, 234.05, 231.62, 231.23, 231.48, 227.63, 220.71, 220.21, 218.15, 219.78, 222.17, 219.57, 220.63, 222.41, 219.51, 220.9, 221.78, 225.22, 227.74, 216.37, 220.07, 216.39, 215.57, 214.47, 213.04, 216.48, 222.03, 217.95, 221.09, 224.21, 226.97, 229.25, 230.3, 222.86, 244.22, 254.0, 249.32, 250.2, 243.04, 244.41, 248.4, 249.1, 244.2, 237.58, 234.69, 232.87, 222.55, 222.69, 217.14, 220.69, 226.28, 229.67, 229.16, 233.22, 233.88, 234.42, 232.38, 229.11, 229.53, 226.89, 227.92, 231.78, 230.28, 226.19, 222.54, 222.56, 221.27, 226.76, 227.35, 228.43, 232.14, 232.38, 232.52, 232.07, 232.53, 230.82, 226.5, 233.06, 240.93, 241.56, 246.29, 247.38, 246.47, 242.6, 236.65, 238.18, 239.12, 231.0, 231.31, 234.34, 239.16, 238.42, 244.68, 243.01, 241.73, 239.3, 242.96, 238.62, 232.99, 222.69]</t>
+  </si>
+  <si>
+    <t>[246.5, 241.76, 228.18, 218.37, 218.65, 217.31, 219.73, 219.43, 211.1, 225.54, 225.08, 220.06, 223.14, 232.11, 240.0, 229.98, 240.2, 259.03, 260.54, 254.29, 263.64, 266.66, 266.47, 270.71, 264.48, 257.56, 237.45, 235.69, 232.75, 240.11, 241.98, 229.99, 202.6, 200.92, 207.2, 203.63, 205.92, 202.29, 211.7, 198.55, 203.68, 196.35, 200.76, 198.97, 194.95, 202.48, 205.71, 197.05, 200.82, 214.2, 219.24, 212.97, 210.77, 194.42, 208.95, 204.98, 187.77, 196.27, 183.64, 194.58, 204.19, 208.21, 202.82, 189.42, 193.31, 187.55, 185.69, 187.78, 181.88, 183.48, 195.0, 218.48, 207.56, 216.47, 223.4, 222.76, 220.84, 222.75, 234.11, 236.95, 236.11, 238.11, 233.54, 224.78, 218.5, 224.0, 227.34, 231.34, 233.19, 233.15, 225.82, 225.85, 225.77, 234.65, 233.36, 229.87, 241.89, 244.05, 253.81, 255.5, 253.95, 244.56, 244.02, 258.93, 252.38, 228.75, 231.01, 225.36, 210.13, 214.54, 218.88, 213.63, 196.3, 193.14, 190.05, 180.27, 177.15, 165.41, 152.69, 151.05]</t>
+  </si>
+  <si>
+    <t>[35.92, 36.18, 36.71, 36.31, 36.22, 38.06, 38.12, 38.51, 39.77, 39.59, 39.69, 38.91, 38.11, 37.03, 36.68, 36.2, 36.0, 35.95, 35.34, 34.55, 35.64, 35.36, 35.29, 35.94, 35.8, 34.49, 34.77, 34.55, 34.48, 35.6, 36.53, 34.66, 34.69, 34.75, 33.93, 33.92, 33.12, 32.32, 32.45, 31.28, 31.57, 32.45, 32.17, 31.69, 31.58, 31.87, 32.9, 32.68, 33.07, 32.81, 32.91, 31.95, 31.21, 30.72, 32.03, 32.13, 31.87, 32.01, 31.72, 32.66, 32.85, 32.87, 33.17, 32.82, 32.47, 31.39, 31.41, 31.1, 30.76, 32.55, 32.38, 34.14, 34.78, 35.29, 35.44, 35.34, 35.54, 35.39, 36.07, 35.32, 35.89, 37.2, 37.44, 37.4, 37.38, 36.84, 36.2, 36.77, 37.3, 37.55, 36.97, 37.09, 37.68, 37.16, 36.73, 36.49, 36.49, 35.96, 35.74, 34.12, 35.15, 34.45, 34.82, 34.65, 34.41, 35.41, 34.98, 33.6, 33.9, 34.42, 34.03, 34.1, 33.48, 32.75, 33.34, 33.54, 33.49, 34.17, 36.93, 36.28]</t>
+  </si>
+  <si>
+    <t>[366.32, 363.6, 336.57, 344.37, 337.58, 358.13, 343.2, 351.36, 342.06, 338.84, 334.41, 341.62, 330.26, 327.59, 335.87, 329.9, 328.53, 326.45, 326.02, 331.44, 327.79, 335.09, 329.71, 349.12, 344.75, 335.93, 327.78, 323.31, 300.7, 309.06, 326.42, 322.21, 338.41, 352.33, 351.63, 359.69, 328.4, 330.8, 320.29, 304.79, 315.47, 300.67, 296.76, 283.84, 289.87, 296.61, 301.91, 280.81, 284.92, 289.08, 295.63, 284.64, 275.36, 254.57, 269.51, 264.67, 246.99, 255.0, 237.2, 241.93, 238.88, 231.35, 224.61, 208.54, 199.75, 195.42, 206.8, 186.5, 177.13, 170.5, 179.04, 172.19, 175.64, 177.18, 171.42, 181.33, 188.39, 186.01, 178.99, 183.69, 188.99, 184.64, 183.3, 176.45, 162.08, 167.5, 160.38, 158.24, 164.82, 164.32, 157.88, 158.71, 158.81, 155.39, 155.61, 151.95, 157.16, 164.72, 157.97, 161.83, 166.97, 157.33, 162.23, 172.99, 179.33, 170.91, 173.71, 160.23, 163.81, 160.98, 163.11, 160.58, 161.58, 158.45, 143.19, 149.71, 139.63, 133.26, 129.09, 106.99]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -309,6 +430,28 @@
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -335,7 +478,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -343,6 +486,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -360,10 +507,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -683,15 +826,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A127C1F3-5B38-4A66-BEBD-606F86090885}">
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="24" max="24" width="21.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -722,56 +868,62 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Z1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="AA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AC1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="AD1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AE1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AF1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AG1" t="s">
         <v>22</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AH1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AI1" t="s">
         <v>24</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AJ1" t="s">
         <v>25</v>
       </c>
-      <c r="W1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>46058</v>
       </c>
@@ -802,56 +954,59 @@
       <c r="J2">
         <v>84.63</v>
       </c>
-      <c r="K2">
+      <c r="P2">
         <v>11.508921186340553</v>
       </c>
-      <c r="L2">
+      <c r="Q2">
+        <v>8.7084958052700046</v>
+      </c>
+      <c r="R2">
+        <v>6.2034739454094296</v>
+      </c>
+      <c r="S2">
+        <v>6.345267635590222</v>
+      </c>
+      <c r="T2">
+        <v>6.345267635590222</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y2">
         <v>1</v>
       </c>
-      <c r="M2">
+      <c r="Z2">
         <v>0.89</v>
       </c>
-      <c r="N2">
+      <c r="AB2">
         <v>72.2</v>
       </c>
-      <c r="O2">
+      <c r="AC2">
         <v>6</v>
       </c>
-      <c r="P2">
+      <c r="AD2">
         <v>1</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="AE2" t="s">
         <v>27</v>
       </c>
-      <c r="R2" t="s">
+      <c r="AF2" t="s">
         <v>28</v>
       </c>
-      <c r="S2" t="s">
+      <c r="AG2" t="s">
         <v>29</v>
       </c>
-      <c r="T2" t="s">
+      <c r="AH2" t="s">
         <v>30</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AI2" t="s">
         <v>31</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AJ2" t="s">
         <v>32</v>
       </c>
-      <c r="W2">
-        <v>8.7084958052700046</v>
-      </c>
-      <c r="X2">
-        <v>6.2034739454094296</v>
-      </c>
-      <c r="Y2">
-        <v>6.345267635590222</v>
-      </c>
-      <c r="Z2">
-        <v>6.345267635590222</v>
-      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>46058</v>
       </c>
@@ -882,56 +1037,59 @@
       <c r="J3">
         <v>31.47</v>
       </c>
-      <c r="K3">
+      <c r="P3">
         <v>5.4655227200508385</v>
       </c>
-      <c r="L3">
+      <c r="Q3">
+        <v>2.0654591674610696</v>
+      </c>
+      <c r="R3">
+        <v>1.843025103272953</v>
+      </c>
+      <c r="S3">
+        <v>5.5926278995869021</v>
+      </c>
+      <c r="T3">
+        <v>5.5926278995869021</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y3">
         <v>1</v>
       </c>
-      <c r="M3">
+      <c r="Z3">
         <v>0.78</v>
       </c>
-      <c r="N3">
+      <c r="AB3">
         <v>25.8</v>
       </c>
-      <c r="O3">
+      <c r="AC3">
         <v>1.2</v>
       </c>
-      <c r="P3">
+      <c r="AD3">
         <v>1</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="AE3" t="s">
         <v>34</v>
       </c>
-      <c r="R3" t="s">
+      <c r="AF3" t="s">
         <v>35</v>
       </c>
-      <c r="S3" t="s">
+      <c r="AG3" t="s">
         <v>36</v>
       </c>
-      <c r="T3" t="s">
+      <c r="AH3" t="s">
         <v>37</v>
       </c>
-      <c r="U3" t="s">
+      <c r="AI3" t="s">
         <v>38</v>
       </c>
-      <c r="V3" t="s">
+      <c r="AJ3" t="s">
         <v>39</v>
       </c>
-      <c r="W3">
-        <v>2.0654591674610696</v>
-      </c>
-      <c r="X3">
-        <v>1.843025103272953</v>
-      </c>
-      <c r="Y3">
-        <v>5.5926278995869021</v>
-      </c>
-      <c r="Z3">
-        <v>5.5926278995869021</v>
-      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>46058</v>
       </c>
@@ -962,56 +1120,59 @@
       <c r="J4">
         <v>205.79</v>
       </c>
-      <c r="K4">
+      <c r="P4">
         <v>6.61353807279266</v>
       </c>
-      <c r="L4">
+      <c r="Q4">
+        <v>6.3462753292191092</v>
+      </c>
+      <c r="R4">
+        <v>4.9127751591428224</v>
+      </c>
+      <c r="S4">
+        <v>9.2764468633072568</v>
+      </c>
+      <c r="T4">
+        <v>9.2764468633072568</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y4">
         <v>1</v>
       </c>
-      <c r="M4">
+      <c r="Z4">
         <v>0.85</v>
       </c>
-      <c r="N4">
+      <c r="AB4">
         <v>21.3</v>
       </c>
-      <c r="O4">
+      <c r="AC4">
         <v>4</v>
       </c>
-      <c r="P4">
+      <c r="AD4">
         <v>1</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="AE4" t="s">
         <v>41</v>
       </c>
-      <c r="R4" t="s">
+      <c r="AF4" t="s">
         <v>42</v>
       </c>
-      <c r="S4" t="s">
+      <c r="AG4" t="s">
         <v>43</v>
       </c>
-      <c r="T4" t="s">
+      <c r="AH4" t="s">
         <v>44</v>
       </c>
-      <c r="U4" t="s">
+      <c r="AI4" t="s">
         <v>45</v>
       </c>
-      <c r="V4" t="s">
+      <c r="AJ4" t="s">
         <v>46</v>
       </c>
-      <c r="W4">
-        <v>6.3462753292191092</v>
-      </c>
-      <c r="X4">
-        <v>4.9127751591428224</v>
-      </c>
-      <c r="Y4">
-        <v>9.2764468633072568</v>
-      </c>
-      <c r="Z4">
-        <v>9.2764468633072568</v>
-      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>46058</v>
       </c>
@@ -1042,56 +1203,59 @@
       <c r="J5">
         <v>333.34</v>
       </c>
-      <c r="K5">
+      <c r="P5">
         <v>-6.2458750824983484</v>
       </c>
-      <c r="L5">
+      <c r="Q5">
+        <v>-6.0418791624167483</v>
+      </c>
+      <c r="R5">
+        <v>-7.9258414831703243</v>
+      </c>
+      <c r="S5">
+        <v>-2.0369592608147729</v>
+      </c>
+      <c r="T5">
+        <v>-3.2939341213175619</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y5">
         <v>1</v>
       </c>
-      <c r="M5">
+      <c r="Z5">
         <v>0.3</v>
       </c>
-      <c r="N5">
+      <c r="AB5">
         <v>9.73</v>
       </c>
-      <c r="O5">
+      <c r="AC5">
         <v>2.58</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="s">
         <v>48</v>
       </c>
-      <c r="R5" t="s">
+      <c r="AF5" t="s">
         <v>49</v>
       </c>
-      <c r="S5" t="s">
+      <c r="AG5" t="s">
         <v>50</v>
       </c>
-      <c r="T5" t="s">
+      <c r="AH5" t="s">
         <v>51</v>
       </c>
-      <c r="U5" t="s">
+      <c r="AI5" t="s">
         <v>52</v>
       </c>
-      <c r="V5" t="s">
+      <c r="AJ5" t="s">
         <v>53</v>
       </c>
-      <c r="W5">
-        <v>-6.0418791624167483</v>
-      </c>
-      <c r="X5">
-        <v>-7.9258414831703243</v>
-      </c>
-      <c r="Y5">
-        <v>-2.0369592608147729</v>
-      </c>
-      <c r="Z5">
-        <v>-3.2939341213175619</v>
-      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>46059</v>
       </c>
@@ -1122,56 +1286,59 @@
       <c r="J6">
         <v>52.48</v>
       </c>
-      <c r="K6">
+      <c r="P6">
         <v>10.899390243902452</v>
       </c>
-      <c r="L6">
+      <c r="Q6">
+        <v>9.3368902439024506</v>
+      </c>
+      <c r="R6">
+        <v>8.5556402439024435</v>
+      </c>
+      <c r="S6">
+        <v>20.217225609756113</v>
+      </c>
+      <c r="T6">
+        <v>8.6318597560975636</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y6">
         <v>1</v>
       </c>
-      <c r="M6">
+      <c r="Z6">
         <v>0.9</v>
       </c>
-      <c r="N6">
+      <c r="AB6">
         <v>25.7</v>
       </c>
-      <c r="O6">
+      <c r="AC6">
         <v>5.8</v>
       </c>
-      <c r="P6">
+      <c r="AD6">
         <v>1</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="AE6" t="s">
         <v>55</v>
       </c>
-      <c r="R6" t="s">
+      <c r="AF6" t="s">
         <v>56</v>
       </c>
-      <c r="S6" t="s">
+      <c r="AG6" t="s">
         <v>57</v>
       </c>
-      <c r="T6" t="s">
+      <c r="AH6" t="s">
         <v>58</v>
       </c>
-      <c r="U6" t="s">
+      <c r="AI6" t="s">
         <v>59</v>
       </c>
-      <c r="V6" t="s">
+      <c r="AJ6" t="s">
         <v>60</v>
       </c>
-      <c r="W6">
-        <v>9.3368902439024506</v>
-      </c>
-      <c r="X6">
-        <v>8.5556402439024435</v>
-      </c>
-      <c r="Y6">
-        <v>20.217225609756113</v>
-      </c>
-      <c r="Z6">
-        <v>8.6318597560975636</v>
-      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>46059</v>
       </c>
@@ -1202,53 +1369,388 @@
       <c r="J7">
         <v>60.57</v>
       </c>
-      <c r="K7">
+      <c r="P7">
         <v>8.3704804358593368</v>
       </c>
-      <c r="L7">
+      <c r="Q7">
+        <v>10.219580650487048</v>
+      </c>
+      <c r="R7">
+        <v>3.8467888393594163</v>
+      </c>
+      <c r="S7">
+        <v>11.358758461284468</v>
+      </c>
+      <c r="T7">
+        <v>-0.37972593693246964</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y7">
         <v>1</v>
       </c>
-      <c r="M7">
+      <c r="Z7">
         <v>0.9</v>
       </c>
-      <c r="N7">
+      <c r="AB7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="O7">
+      <c r="AC7">
         <v>6.2</v>
       </c>
-      <c r="P7">
+      <c r="AD7">
         <v>1</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="AE7" t="s">
         <v>62</v>
       </c>
-      <c r="R7" t="s">
+      <c r="AF7" t="s">
         <v>63</v>
       </c>
-      <c r="S7" t="s">
+      <c r="AG7" t="s">
         <v>64</v>
       </c>
-      <c r="T7" t="s">
+      <c r="AH7" t="s">
         <v>65</v>
       </c>
-      <c r="U7" t="s">
+      <c r="AI7" t="s">
         <v>66</v>
       </c>
-      <c r="V7" t="s">
+      <c r="AJ7" t="s">
         <v>67</v>
       </c>
-      <c r="W7">
-        <v>10.219580650487048</v>
-      </c>
-      <c r="X7">
-        <v>3.8467888393594163</v>
-      </c>
-      <c r="Y7">
-        <v>11.358758461284468</v>
-      </c>
-      <c r="Z7">
-        <v>-0.37972593693246964</v>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>-10</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>-12.3</v>
+      </c>
+      <c r="I8">
+        <v>4.5</v>
+      </c>
+      <c r="J8">
+        <v>222.69</v>
+      </c>
+      <c r="P8">
+        <v>-9.2909425658987832</v>
+      </c>
+      <c r="Q8">
+        <v>-9.0080380798419331</v>
+      </c>
+      <c r="R8">
+        <v>-10.049845076114776</v>
+      </c>
+      <c r="S8">
+        <v>-7.4363464906372094</v>
+      </c>
+      <c r="T8">
+        <v>-9.5918092415465388</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>0.22</v>
+      </c>
+      <c r="AB8">
+        <v>-1.52</v>
+      </c>
+      <c r="AC8">
+        <v>0.91</v>
+      </c>
+      <c r="AD8">
+        <v>-1</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>-16.2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>-41.7</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>-44.2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>151.05000000000001</v>
+      </c>
+      <c r="P9">
+        <v>-4.6673286991062639</v>
+      </c>
+      <c r="Q9">
+        <v>6.9380999668983705</v>
+      </c>
+      <c r="R9">
+        <v>-0.13902681231380865</v>
+      </c>
+      <c r="S9">
+        <v>2.4164184045018056</v>
+      </c>
+      <c r="T9">
+        <v>-0.46342270771268917</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>0.92</v>
+      </c>
+      <c r="AB9">
+        <v>2.93</v>
+      </c>
+      <c r="AC9">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10">
+        <v>36</v>
+      </c>
+      <c r="D10">
+        <v>-1.8</v>
+      </c>
+      <c r="E10">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F10">
+        <v>-3.7</v>
+      </c>
+      <c r="G10">
+        <v>10.8</v>
+      </c>
+      <c r="H10">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="I10">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="J10">
+        <v>36.28</v>
+      </c>
+      <c r="P10">
+        <v>5.5126791620716702E-2</v>
+      </c>
+      <c r="Q10">
+        <v>-0.46857772877618986</v>
+      </c>
+      <c r="R10">
+        <v>-2.1775082690187411</v>
+      </c>
+      <c r="S10">
+        <v>1.1025358324145496</v>
+      </c>
+      <c r="T10">
+        <v>-1.9570011025358345</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>0.84</v>
+      </c>
+      <c r="AB10">
+        <v>100.2</v>
+      </c>
+      <c r="AC10">
+        <v>4.3</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>39</v>
+      </c>
+      <c r="D11">
+        <v>-28.5</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>-40.299999999999997</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>-70.8</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>106.99</v>
+      </c>
+      <c r="P11">
+        <v>7.2997476399663546</v>
+      </c>
+      <c r="Q11">
+        <v>7.5708010094401423</v>
+      </c>
+      <c r="R11">
+        <v>7.1875876250116946</v>
+      </c>
+      <c r="S11">
+        <v>21.076736143564816</v>
+      </c>
+      <c r="T11">
+        <v>12.505841667445566</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>0.38</v>
+      </c>
+      <c r="AB11">
+        <v>-1545</v>
+      </c>
+      <c r="AC11">
+        <v>3.5</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/data/QT Training Data.xlsx
+++ b/data/QT Training Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QT Model Training\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBF4F62-207E-4E33-8373-EB5104C944AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D6776A-259E-4AFA-B7C2-743426CC68A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C04D32E6-5986-4A3B-9C97-ED71BAC389A5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="184">
   <si>
     <t>開盤日期</t>
   </si>
@@ -66,9 +66,6 @@
     <t>6個月低價距離 (%)</t>
   </si>
   <si>
-    <t>昨日收盤價</t>
-  </si>
-  <si>
     <t>盤前 (%)</t>
   </si>
   <si>
@@ -97,24 +94,6 @@
   </si>
   <si>
     <t>展望 (Guidance)</t>
-  </si>
-  <si>
-    <t>5天 RSI 序列</t>
-  </si>
-  <si>
-    <t>5天 ADX 序列</t>
-  </si>
-  <si>
-    <t>1個月 RSI 序列</t>
-  </si>
-  <si>
-    <t>1個月 ADX 序列</t>
-  </si>
-  <si>
-    <t>6個月 RSI 序列</t>
-  </si>
-  <si>
-    <t>6個月 ADX 序列</t>
   </si>
   <si>
     <t>ELF</t>
@@ -283,9 +262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>AMZN</t>
   </si>
   <si>
@@ -382,33 +358,254 @@
     <t>[177.52, 176.63, 177.04, 179.39, 180.2, 177.99, 180.04, 179.3, 182.0, 180.27, 178.61, 182.35, 184.36, 183.28, 183.88, 184.06, 186.1, 186.26, 184.18, 184.13, 183.6, 184.14, 191.97, 189.63, 187.63, 188.73, 190.87, 189.28, 189.43, 183.84, 186.67, 182.7, 185.62, 187.39, 187.57, 193.64, 193.69, 192.9, 194.06, 191.11, 190.66, 187.75, 187.98, 190.14, 185.37, 186.3, 184.79, 184.71, 182.79, 180.19, 178.01, 180.06, 178.87, 173.94, 169.85, 168.33, 161.07, 164.68, 168.58, 166.36, 169.31, 167.62, 171.4, 176.9, 176.78, 177.83, 179.0, 182.93, 182.48, 182.66, 186.0, 185.8, 186.75, 188.2, 188.08, 185.08, 182.77, 180.63, 182.46, 182.3, 180.78, 178.78, 180.06, 181.58, 181.83, 188.11, 188.15, 188.94, 188.16, 189.26, 186.38, 182.62, 184.8, 184.2, 180.77, 182.19, 181.98, 182.41, 179.99, 179.28, 180.07, 184.75, 189.07, 193.13, 195.29, 199.12, 201.07, 197.76, 198.87, 196.07, 190.65, 191.2, 189.97, 191.63, 192.0, 190.54, 194.75, 198.01, 201.47, 205.79]</t>
   </si>
   <si>
+    <t>[48.15, 48.37, 48.55, 47.7, 48.26, 50.69, 50.46, 50.1, 50.84, 50.77, 49.81, 49.09, 49.06, 50.2, 49.93, 50.25, 49.58, 48.96, 50.29, 49.4, 49.65, 49.45, 49.37, 50.89, 50.55, 51.02, 50.84, 49.34, 49.18, 50.4, 49.64, 50.03, 49.0, 49.87, 49.65, 50.63, 49.81, 50.28, 48.99, 48.23, 51.04, 51.91, 55.22, 54.53, 52.16, 53.76, 54.19, 53.09, 55.27, 54.64, 54.35, 53.49, 52.67, 53.03, 49.76, 53.47, 48.28, 49.8, 48.64, 48.99, 49.03, 49.51, 49.83, 49.1, 48.5, 47.07, 47.16, 47.18, 46.81, 48.83, 49.26, 50.78, 50.86, 50.82, 50.03, 50.14, 51.18, 51.68, 52.08, 50.88, 51.23, 52.45, 53.22, 52.57, 52.42, 52.72, 52.37, 52.56, 52.12, 53.03, 53.17, 53.09, 52.7, 52.31, 51.63, 50.59, 51.35, 52.99, 54.04, 53.75, 54.93, 54.71, 54.63, 54.04, 53.67, 55.0, 54.76, 53.03, 55.43, 55.19, 53.75, 52.93, 52.48, 51.86, 53.18, 52.65, 53.45, 53.67, 53.46, 52.48]</t>
+  </si>
+  <si>
+    <t>[117.34, 119.95, 118.28, 118.49, 114.85, 117.52, 124.81, 124.76, 122.7, 126.88, 124.59, 128.47, 133.46, 129.79, 127.69, 128.47, 131.79, 132.84, 132.96, 133.31, 137.25, 135.84, 135.38, 135.54, 135.18, 136.84, 132.22, 133.13, 132.04, 135.06, 141.56, 138.52, 134.07, 133.5, 122.69, 126.27, 124.99, 125.97, 126.43, 126.8, 128.24, 133.28, 138.56, 134.49, 132.92, 134.84, 133.16, 128.0, 129.24, 127.71, 128.49, 131.72, 133.74, 113.0, 113.72, 107.66, 104.13, 102.24, 101.28, 106.84, 105.36, 104.68, 104.34, 101.27, 102.28, 101.27, 101.73, 97.37, 91.7, 89.25, 90.58, 91.07, 92.73, 95.03, 93.79, 93.7, 92.1, 95.21, 96.28, 97.64, 99.0, 94.36, 94.34, 88.51, 86.96, 87.44, 85.91, 83.91, 81.94, 81.98, 80.99, 81.88, 82.22, 81.52, 81.81, 81.03, 80.95, 81.04, 75.83, 76.42, 73.89, 73.27, 76.72, 84.8, 82.87, 84.65, 87.28, 78.84, 75.68, 74.7, 74.12, 74.01, 72.14, 75.27, 75.73, 65.76, 67.48, 65.4, 63.07, 60.57]</t>
+  </si>
+  <si>
+    <t>[231.03, 231.49, 228.01, 223.81, 221.95, 228.84, 227.94, 228.71, 229.12, 231.6, 229.0, 225.34, 225.99, 235.68, 232.33, 235.84, 238.24, 230.33, 229.95, 228.15, 231.43, 234.05, 231.62, 231.23, 231.48, 227.63, 220.71, 220.21, 218.15, 219.78, 222.17, 219.57, 220.63, 222.41, 219.51, 220.9, 221.78, 225.22, 227.74, 216.37, 220.07, 216.39, 215.57, 214.47, 213.04, 216.48, 222.03, 217.95, 221.09, 224.21, 226.97, 229.25, 230.3, 222.86, 244.22, 254.0, 249.32, 250.2, 243.04, 244.41, 248.4, 249.1, 244.2, 237.58, 234.69, 232.87, 222.55, 222.69, 217.14, 220.69, 226.28, 229.67, 229.16, 233.22, 233.88, 234.42, 232.38, 229.11, 229.53, 226.89, 227.92, 231.78, 230.28, 226.19, 222.54, 222.56, 221.27, 226.76, 227.35, 228.43, 232.14, 232.38, 232.52, 232.07, 232.53, 230.82, 226.5, 233.06, 240.93, 241.56, 246.29, 247.38, 246.47, 242.6, 236.65, 238.18, 239.12, 231.0, 231.31, 234.34, 239.16, 238.42, 244.68, 243.01, 241.73, 239.3, 242.96, 238.62, 232.99, 222.69]</t>
+  </si>
+  <si>
+    <t>[246.5, 241.76, 228.18, 218.37, 218.65, 217.31, 219.73, 219.43, 211.1, 225.54, 225.08, 220.06, 223.14, 232.11, 240.0, 229.98, 240.2, 259.03, 260.54, 254.29, 263.64, 266.66, 266.47, 270.71, 264.48, 257.56, 237.45, 235.69, 232.75, 240.11, 241.98, 229.99, 202.6, 200.92, 207.2, 203.63, 205.92, 202.29, 211.7, 198.55, 203.68, 196.35, 200.76, 198.97, 194.95, 202.48, 205.71, 197.05, 200.82, 214.2, 219.24, 212.97, 210.77, 194.42, 208.95, 204.98, 187.77, 196.27, 183.64, 194.58, 204.19, 208.21, 202.82, 189.42, 193.31, 187.55, 185.69, 187.78, 181.88, 183.48, 195.0, 218.48, 207.56, 216.47, 223.4, 222.76, 220.84, 222.75, 234.11, 236.95, 236.11, 238.11, 233.54, 224.78, 218.5, 224.0, 227.34, 231.34, 233.19, 233.15, 225.82, 225.85, 225.77, 234.65, 233.36, 229.87, 241.89, 244.05, 253.81, 255.5, 253.95, 244.56, 244.02, 258.93, 252.38, 228.75, 231.01, 225.36, 210.13, 214.54, 218.88, 213.63, 196.3, 193.14, 190.05, 180.27, 177.15, 165.41, 152.69, 151.05]</t>
+  </si>
+  <si>
+    <t>[35.92, 36.18, 36.71, 36.31, 36.22, 38.06, 38.12, 38.51, 39.77, 39.59, 39.69, 38.91, 38.11, 37.03, 36.68, 36.2, 36.0, 35.95, 35.34, 34.55, 35.64, 35.36, 35.29, 35.94, 35.8, 34.49, 34.77, 34.55, 34.48, 35.6, 36.53, 34.66, 34.69, 34.75, 33.93, 33.92, 33.12, 32.32, 32.45, 31.28, 31.57, 32.45, 32.17, 31.69, 31.58, 31.87, 32.9, 32.68, 33.07, 32.81, 32.91, 31.95, 31.21, 30.72, 32.03, 32.13, 31.87, 32.01, 31.72, 32.66, 32.85, 32.87, 33.17, 32.82, 32.47, 31.39, 31.41, 31.1, 30.76, 32.55, 32.38, 34.14, 34.78, 35.29, 35.44, 35.34, 35.54, 35.39, 36.07, 35.32, 35.89, 37.2, 37.44, 37.4, 37.38, 36.84, 36.2, 36.77, 37.3, 37.55, 36.97, 37.09, 37.68, 37.16, 36.73, 36.49, 36.49, 35.96, 35.74, 34.12, 35.15, 34.45, 34.82, 34.65, 34.41, 35.41, 34.98, 33.6, 33.9, 34.42, 34.03, 34.1, 33.48, 32.75, 33.34, 33.54, 33.49, 34.17, 36.93, 36.28]</t>
+  </si>
+  <si>
+    <t>[366.32, 363.6, 336.57, 344.37, 337.58, 358.13, 343.2, 351.36, 342.06, 338.84, 334.41, 341.62, 330.26, 327.59, 335.87, 329.9, 328.53, 326.45, 326.02, 331.44, 327.79, 335.09, 329.71, 349.12, 344.75, 335.93, 327.78, 323.31, 300.7, 309.06, 326.42, 322.21, 338.41, 352.33, 351.63, 359.69, 328.4, 330.8, 320.29, 304.79, 315.47, 300.67, 296.76, 283.84, 289.87, 296.61, 301.91, 280.81, 284.92, 289.08, 295.63, 284.64, 275.36, 254.57, 269.51, 264.67, 246.99, 255.0, 237.2, 241.93, 238.88, 231.35, 224.61, 208.54, 199.75, 195.42, 206.8, 186.5, 177.13, 170.5, 179.04, 172.19, 175.64, 177.18, 171.42, 181.33, 188.39, 186.01, 178.99, 183.69, 188.99, 184.64, 183.3, 176.45, 162.08, 167.5, 160.38, 158.24, 164.82, 164.32, 157.88, 158.71, 158.81, 155.39, 155.61, 151.95, 157.16, 164.72, 157.97, 161.83, 166.97, 157.33, 162.23, 172.99, 179.33, 170.91, 173.71, 160.23, 163.81, 160.98, 163.11, 160.58, 161.58, 158.45, 143.19, 149.71, 139.63, 133.26, 129.09, 106.99]</t>
+  </si>
+  <si>
+    <t>*盤前 10 分鐘價格</t>
+  </si>
+  <si>
+    <t>*開盤價格</t>
+  </si>
+  <si>
+    <t>*10分鐘最低價</t>
+  </si>
+  <si>
+    <t>*1.5小時最高價</t>
+  </si>
+  <si>
+    <t>*最高價前的最低價</t>
+  </si>
+  <si>
+    <t>*進場位置 (%)</t>
+  </si>
+  <si>
+    <t>*忍受回檔位置 (%)</t>
+  </si>
+  <si>
+    <t>*獲利位置 (%)</t>
+  </si>
+  <si>
+    <t>*獲利能力 (%)</t>
+  </si>
+  <si>
     <t>[203.51, 204.59, 203.97, 202.18, 199.88, 200.31, 206.4, 208.84, 207.63, 207.89, 212.04, 213.2, 211.66, 230.74, 232.3, 234.81, 234.01, 239.78, 239.4, 240.62, 241.22, 251.6, 251.26, 249.69, 252.17, 255.07, 252.72, 252.18, 247.67, 246.41, 247.02, 244.2, 243.39, 245.38, 246.27, 246.29, 251.35, 246.97, 245.3, 242.05, 237.34, 244.48, 246.03, 251.55, 251.72, 253.62, 256.85, 251.18, 252.37, 253.56, 260.34, 269.75, 268.25, 274.99, 281.72, 281.64, 283.93, 277.88, 284.56, 285.15, 279.52, 290.4, 291.55, 287.24, 278.94, 276.8, 285.41, 284.77, 292.8, 289.79, 299.45, 318.26, 323.43, 320.07, 319.91, 314.91, 315.81, 320.41, 318.18, 321.88, 314.45, 317.75, 321.0, 313.7, 310.52, 309.32, 307.73, 298.06, 303.75, 308.61, 311.33, 315.68, 315.67, 314.96, 314.39, 314.55, 313.8, 315.32, 317.32, 314.55, 322.43, 326.01, 329.14, 332.73, 336.43, 336.31, 333.16, 330.34, 322.16, 328.38, 330.84, 328.43, 333.59, 335.0, 336.28, 338.66, 338.53, 344.9, 340.7, 333.34]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>[48.15, 48.37, 48.55, 47.7, 48.26, 50.69, 50.46, 50.1, 50.84, 50.77, 49.81, 49.09, 49.06, 50.2, 49.93, 50.25, 49.58, 48.96, 50.29, 49.4, 49.65, 49.45, 49.37, 50.89, 50.55, 51.02, 50.84, 49.34, 49.18, 50.4, 49.64, 50.03, 49.0, 49.87, 49.65, 50.63, 49.81, 50.28, 48.99, 48.23, 51.04, 51.91, 55.22, 54.53, 52.16, 53.76, 54.19, 53.09, 55.27, 54.64, 54.35, 53.49, 52.67, 53.03, 49.76, 53.47, 48.28, 49.8, 48.64, 48.99, 49.03, 49.51, 49.83, 49.1, 48.5, 47.07, 47.16, 47.18, 46.81, 48.83, 49.26, 50.78, 50.86, 50.82, 50.03, 50.14, 51.18, 51.68, 52.08, 50.88, 51.23, 52.45, 53.22, 52.57, 52.42, 52.72, 52.37, 52.56, 52.12, 53.03, 53.17, 53.09, 52.7, 52.31, 51.63, 50.59, 51.35, 52.99, 54.04, 53.75, 54.93, 54.71, 54.63, 54.04, 53.67, 55.0, 54.76, 53.03, 55.43, 55.19, 53.75, 52.93, 52.48, 51.86, 53.18, 52.65, 53.45, 53.67, 53.46, 52.48]</t>
-  </si>
-  <si>
-    <t>[117.34, 119.95, 118.28, 118.49, 114.85, 117.52, 124.81, 124.76, 122.7, 126.88, 124.59, 128.47, 133.46, 129.79, 127.69, 128.47, 131.79, 132.84, 132.96, 133.31, 137.25, 135.84, 135.38, 135.54, 135.18, 136.84, 132.22, 133.13, 132.04, 135.06, 141.56, 138.52, 134.07, 133.5, 122.69, 126.27, 124.99, 125.97, 126.43, 126.8, 128.24, 133.28, 138.56, 134.49, 132.92, 134.84, 133.16, 128.0, 129.24, 127.71, 128.49, 131.72, 133.74, 113.0, 113.72, 107.66, 104.13, 102.24, 101.28, 106.84, 105.36, 104.68, 104.34, 101.27, 102.28, 101.27, 101.73, 97.37, 91.7, 89.25, 90.58, 91.07, 92.73, 95.03, 93.79, 93.7, 92.1, 95.21, 96.28, 97.64, 99.0, 94.36, 94.34, 88.51, 86.96, 87.44, 85.91, 83.91, 81.94, 81.98, 80.99, 81.88, 82.22, 81.52, 81.81, 81.03, 80.95, 81.04, 75.83, 76.42, 73.89, 73.27, 76.72, 84.8, 82.87, 84.65, 87.28, 78.84, 75.68, 74.7, 74.12, 74.01, 72.14, 75.27, 75.73, 65.76, 67.48, 65.4, 63.07, 60.57]</t>
-  </si>
-  <si>
-    <t>[231.03, 231.49, 228.01, 223.81, 221.95, 228.84, 227.94, 228.71, 229.12, 231.6, 229.0, 225.34, 225.99, 235.68, 232.33, 235.84, 238.24, 230.33, 229.95, 228.15, 231.43, 234.05, 231.62, 231.23, 231.48, 227.63, 220.71, 220.21, 218.15, 219.78, 222.17, 219.57, 220.63, 222.41, 219.51, 220.9, 221.78, 225.22, 227.74, 216.37, 220.07, 216.39, 215.57, 214.47, 213.04, 216.48, 222.03, 217.95, 221.09, 224.21, 226.97, 229.25, 230.3, 222.86, 244.22, 254.0, 249.32, 250.2, 243.04, 244.41, 248.4, 249.1, 244.2, 237.58, 234.69, 232.87, 222.55, 222.69, 217.14, 220.69, 226.28, 229.67, 229.16, 233.22, 233.88, 234.42, 232.38, 229.11, 229.53, 226.89, 227.92, 231.78, 230.28, 226.19, 222.54, 222.56, 221.27, 226.76, 227.35, 228.43, 232.14, 232.38, 232.52, 232.07, 232.53, 230.82, 226.5, 233.06, 240.93, 241.56, 246.29, 247.38, 246.47, 242.6, 236.65, 238.18, 239.12, 231.0, 231.31, 234.34, 239.16, 238.42, 244.68, 243.01, 241.73, 239.3, 242.96, 238.62, 232.99, 222.69]</t>
-  </si>
-  <si>
-    <t>[246.5, 241.76, 228.18, 218.37, 218.65, 217.31, 219.73, 219.43, 211.1, 225.54, 225.08, 220.06, 223.14, 232.11, 240.0, 229.98, 240.2, 259.03, 260.54, 254.29, 263.64, 266.66, 266.47, 270.71, 264.48, 257.56, 237.45, 235.69, 232.75, 240.11, 241.98, 229.99, 202.6, 200.92, 207.2, 203.63, 205.92, 202.29, 211.7, 198.55, 203.68, 196.35, 200.76, 198.97, 194.95, 202.48, 205.71, 197.05, 200.82, 214.2, 219.24, 212.97, 210.77, 194.42, 208.95, 204.98, 187.77, 196.27, 183.64, 194.58, 204.19, 208.21, 202.82, 189.42, 193.31, 187.55, 185.69, 187.78, 181.88, 183.48, 195.0, 218.48, 207.56, 216.47, 223.4, 222.76, 220.84, 222.75, 234.11, 236.95, 236.11, 238.11, 233.54, 224.78, 218.5, 224.0, 227.34, 231.34, 233.19, 233.15, 225.82, 225.85, 225.77, 234.65, 233.36, 229.87, 241.89, 244.05, 253.81, 255.5, 253.95, 244.56, 244.02, 258.93, 252.38, 228.75, 231.01, 225.36, 210.13, 214.54, 218.88, 213.63, 196.3, 193.14, 190.05, 180.27, 177.15, 165.41, 152.69, 151.05]</t>
-  </si>
-  <si>
-    <t>[35.92, 36.18, 36.71, 36.31, 36.22, 38.06, 38.12, 38.51, 39.77, 39.59, 39.69, 38.91, 38.11, 37.03, 36.68, 36.2, 36.0, 35.95, 35.34, 34.55, 35.64, 35.36, 35.29, 35.94, 35.8, 34.49, 34.77, 34.55, 34.48, 35.6, 36.53, 34.66, 34.69, 34.75, 33.93, 33.92, 33.12, 32.32, 32.45, 31.28, 31.57, 32.45, 32.17, 31.69, 31.58, 31.87, 32.9, 32.68, 33.07, 32.81, 32.91, 31.95, 31.21, 30.72, 32.03, 32.13, 31.87, 32.01, 31.72, 32.66, 32.85, 32.87, 33.17, 32.82, 32.47, 31.39, 31.41, 31.1, 30.76, 32.55, 32.38, 34.14, 34.78, 35.29, 35.44, 35.34, 35.54, 35.39, 36.07, 35.32, 35.89, 37.2, 37.44, 37.4, 37.38, 36.84, 36.2, 36.77, 37.3, 37.55, 36.97, 37.09, 37.68, 37.16, 36.73, 36.49, 36.49, 35.96, 35.74, 34.12, 35.15, 34.45, 34.82, 34.65, 34.41, 35.41, 34.98, 33.6, 33.9, 34.42, 34.03, 34.1, 33.48, 32.75, 33.34, 33.54, 33.49, 34.17, 36.93, 36.28]</t>
-  </si>
-  <si>
-    <t>[366.32, 363.6, 336.57, 344.37, 337.58, 358.13, 343.2, 351.36, 342.06, 338.84, 334.41, 341.62, 330.26, 327.59, 335.87, 329.9, 328.53, 326.45, 326.02, 331.44, 327.79, 335.09, 329.71, 349.12, 344.75, 335.93, 327.78, 323.31, 300.7, 309.06, 326.42, 322.21, 338.41, 352.33, 351.63, 359.69, 328.4, 330.8, 320.29, 304.79, 315.47, 300.67, 296.76, 283.84, 289.87, 296.61, 301.91, 280.81, 284.92, 289.08, 295.63, 284.64, 275.36, 254.57, 269.51, 264.67, 246.99, 255.0, 237.2, 241.93, 238.88, 231.35, 224.61, 208.54, 199.75, 195.42, 206.8, 186.5, 177.13, 170.5, 179.04, 172.19, 175.64, 177.18, 171.42, 181.33, 188.39, 186.01, 178.99, 183.69, 188.99, 184.64, 183.3, 176.45, 162.08, 167.5, 160.38, 158.24, 164.82, 164.32, 157.88, 158.71, 158.81, 155.39, 155.61, 151.95, 157.16, 164.72, 157.97, 161.83, 166.97, 157.33, 162.23, 172.99, 179.33, 170.91, 173.71, 160.23, 163.81, 160.98, 163.11, 160.58, 161.58, 158.45, 143.19, 149.71, 139.63, 133.26, 129.09, 106.99]</t>
+  </si>
+  <si>
+    <t>APO</t>
+  </si>
+  <si>
+    <t>[24.1, 18.9, 32.1, 26.3, 37.9]</t>
+  </si>
+  <si>
+    <t>[40.0, 42.2, 44.4, 48.4, 51.4]</t>
+  </si>
+  <si>
+    <t>[75.9, 73.3, 71.7, 56.2, 34.1, 36.9, 55.7, 67.5, 44.2, 49.6, 49.1, 45.7, 39.3, 41.9, 41.0, 41.1, 35.7, 39.1, 41.2, 33.0, 21.5, 14.0, 24.0, 22.9, 23.4, 24.1, 18.9, 32.1, 26.3, 37.9]</t>
+  </si>
+  <si>
+    <t>[67.0, 68.8, 70.0, 67.5, 62.5, 58.4, 56.2, 54.9, 50.5, 45.9, 41.4, 36.5, 33.1, 29.5, 25.5, 21.8, 19.1, 18.6, 19.8, 21.6, 24.1, 26.6, 30.9, 34.1, 37.0, 40.0, 42.2, 44.4, 48.4, 51.4]</t>
+  </si>
+  <si>
+    <t>[37.3, 37.3, 35.5, 43.0, 34.4, 22.4, 23.1, 35.6, 34.8, 33.9, 21.9, 22.5, 33.2, 29.6, 37.8, 42.6, 45.0, 56.4, 59.6, 61.4, 63.3, 57.3, 64.1, 66.3, 65.3, 75.2, 54.0, 58.3, 56.1, 57.4, 49.4, 40.0, 33.7, 31.5, 30.0, 30.5, 18.1, 13.8, 12.0, 19.8, 36.2, 37.5, 28.5, 28.0, 39.2, 44.3, 48.9, 45.9, 47.6, 50.4, 49.6, 51.8, 58.0, 53.2, 42.4, 54.6, 73.7, 62.1, 61.6, 57.8, 59.6, 67.3, 55.6, 56.3, 50.5, 49.9, 55.5, 53.8, 58.0, 50.1, 45.9, 53.3, 50.0, 52.0, 49.4, 52.9, 68.9, 68.2, 88.2, 91.5, 92.3, 94.2, 85.1, 81.2, 81.0, 79.8, 78.3, 79.7, 81.1, 77.6, 75.9, 73.3, 71.7, 56.2, 34.1, 36.9, 55.7, 67.5, 44.2, 49.6, 49.1, 45.7, 39.3, 41.9, 41.0, 41.1, 35.7, 39.1, 41.2, 33.0, 21.5, 14.0, 24.0, 22.9, 23.4, 24.1, 18.9, 32.1, 26.3, 37.9]</t>
+  </si>
+  <si>
+    <t>[23.4, 24.4, 26.0, 24.3, 22.3, 24.3, 25.6, 24.0, 22.4, 21.4, 22.4, 22.1, 22.1, 23.8, 25.9, 27.5, 26.5, 26.6, 28.3, 26.8, 24.1, 23.6, 23.2, 23.1, 20.9, 21.0, 19.1, 16.3, 13.9, 12.0, 11.8, 12.4, 12.2, 13.2, 15.4, 18.5, 22.0, 25.7, 29.5, 33.1, 35.8, 37.4, 40.1, 43.0, 44.3, 44.8, 44.0, 43.0, 41.5, 38.7, 35.9, 32.5, 28.5, 22.6, 21.7, 19.9, 18.9, 18.2, 17.9, 18.3, 19.5, 22.0, 22.9, 23.1, 23.3, 23.6, 24.6, 26.9, 27.1, 27.2, 24.5, 21.6, 20.4, 18.8, 17.0, 13.9, 13.3, 15.3, 17.7, 21.5, 25.2, 27.6, 30.0, 33.8, 38.6, 43.6, 48.1, 53.0, 58.4, 63.4, 67.0, 68.8, 70.0, 67.5, 62.5, 58.4, 56.2, 54.9, 50.5, 45.9, 41.4, 36.5, 33.1, 29.5, 25.5, 21.8, 19.1, 18.6, 19.8, 21.6, 24.1, 26.6, 30.9, 34.1, 37.0, 40.0, 42.2, 44.4, 48.4, 51.4]</t>
+  </si>
+  <si>
+    <t>[138.85, 136.54, 134.81, 133.49, 133.68, 133.37, 133.88, 135.19, 135.86, 135.7, 135.31, 132.11, 134.23, 131.04, 133.92, 133.9, 133.12, 135.87, 137.49, 137.94, 139.5, 138.28, 142.93, 144.18, 143.4, 144.32, 136.62, 135.6, 137.09, 137.9, 132.75, 129.44, 126.73, 125.4, 126.21, 125.56, 124.31, 123.06, 117.76, 121.96, 127.14, 127.2, 120.37, 120.91, 124.7, 125.49, 126.04, 122.57, 124.51, 125.88, 123.98, 124.39, 122.97, 123.82, 123.47, 130.0, 133.23, 128.48, 131.85, 130.41, 132.36, 133.06, 128.21, 130.09, 124.34, 124.32, 127.2, 126.76, 130.02, 130.1, 130.62, 130.27, 131.85, 131.39, 132.08, 134.5, 136.75, 138.13, 137.38, 143.89, 149.08, 150.33, 148.05, 146.83, 147.15, 146.4, 146.3, 146.34, 148.89, 148.37, 148.85, 148.52, 147.27, 146.06, 144.76, 146.61, 149.76, 152.7, 144.28, 146.19, 145.82, 143.91, 143.24, 144.06, 144.15, 143.88, 138.64, 139.53, 139.73, 136.31, 131.56, 131.72, 132.89, 134.49, 134.54, 133.19, 126.85, 132.8, 126.08, 133.03]</t>
+  </si>
+  <si>
+    <t>BDX</t>
+  </si>
+  <si>
+    <t>[48.5, 57.9, 50.8, 46.6, 54.9]</t>
+  </si>
+  <si>
+    <t>[29.2, 27.9, 25.3, 22.1, 18.8]</t>
+  </si>
+  <si>
+    <t>[56.5, 56.5, 61.9, 64.4, 36.2, 31.1, 44.7, 61.1, 64.0, 70.4, 65.6, 64.3, 59.6, 69.7, 70.2, 67.2, 62.1, 64.5, 67.2, 59.0, 56.2, 46.7, 48.6, 42.3, 51.4, 48.5, 57.9, 50.8, 46.6, 54.9]</t>
+  </si>
+  <si>
+    <t>[21.5, 21.7, 23.9, 26.6, 24.7, 23.7, 21.5, 20.5, 23.0, 25.3, 28.1, 30.6, 30.2, 31.8, 33.6, 35.7, 35.3, 34.7, 36.5, 34.9, 35.3, 36.4, 34.8, 33.7, 31.5, 29.2, 27.9, 25.3, 22.1, 18.8]</t>
+  </si>
+  <si>
+    <t>[64.5, 68.1, 74.1, 72.9, 73.2, 68.6, 74.7, 62.9, 46.0, 50.8, 39.1, 40.0, 44.2, 44.6, 46.3, 39.1, 34.2, 41.7, 31.1, 35.5, 37.4, 37.5, 46.1, 39.5, 48.5, 44.1, 37.3, 24.1, 35.8, 36.5, 47.5, 50.7, 60.0, 66.0, 61.2, 59.9, 60.9, 53.5, 50.0, 50.2, 53.6, 60.8, 51.3, 58.7, 56.8, 46.4, 43.4, 36.4, 37.7, 39.3, 32.1, 34.9, 35.4, 34.2, 27.8, 34.6, 33.1, 25.0, 20.0, 34.5, 51.5, 58.8, 61.3, 59.7, 61.3, 68.9, 71.4, 69.0, 75.4, 69.6, 79.6, 75.1, 74.9, 66.5, 52.9, 52.9, 51.5, 51.9, 49.1, 45.0, 62.3, 67.6, 64.8, 66.8, 53.3, 54.4, 52.9, 58.6, 63.1, 56.1, 56.5, 56.5, 61.9, 64.4, 36.2, 31.1, 44.7, 61.1, 64.0, 70.4, 65.6, 64.3, 59.6, 69.7, 70.2, 67.2, 62.1, 64.5, 67.2, 59.0, 56.2, 46.7, 48.6, 42.3, 51.4, 48.5, 57.9, 50.8, 46.6, 54.9]</t>
+  </si>
+  <si>
+    <t>[19.6, 20.9, 23.5, 27.8, 32.1, 35.2, 37.9, 39.7, 37.7, 35.6, 35.3, 36.5, 37.0, 37.1, 37.4, 37.4, 37.9, 36.7, 36.3, 36.7, 36.0, 36.3, 38.7, 41.6, 42.7, 40.7, 40.8, 43.0, 44.4, 45.8, 43.9, 41.5, 38.0, 35.1, 32.2, 29.3, 27.2, 24.5, 22.6, 22.5, 21.2, 18.8, 15.4, 11.7, 10.2, 10.0, 10.2, 11.4, 12.6, 14.5, 16.6, 18.8, 20.6, 22.7, 24.9, 25.7, 26.7, 31.0, 35.9, 39.6, 41.1, 40.2, 38.7, 37.0, 35.1, 32.8, 30.4, 28.0, 26.3, 24.8, 24.8, 25.3, 24.7, 24.4, 24.0, 24.0, 23.6, 24.1, 23.8, 23.7, 26.4, 28.8, 30.0, 31.5, 31.0, 26.6, 22.3, 19.5, 19.8, 20.1, 21.5, 21.7, 23.9, 26.6, 24.7, 23.7, 21.5, 20.5, 23.0, 25.3, 28.1, 30.6, 30.2, 31.8, 33.6, 35.7, 35.3, 34.7, 36.5, 34.9, 35.3, 36.4, 34.8, 33.7, 31.5, 29.2, 27.9, 25.3, 22.1, 18.8]</t>
+  </si>
+  <si>
+    <t>[192.9, 195.89, 197.05, 194.51, 197.51, 192.55, 191.98, 193.29, 189.19, 190.9, 186.12, 187.56, 189.2, 190.31, 190.54, 189.46, 187.41, 189.53, 185.83, 184.73, 185.2, 186.55, 187.35, 186.03, 185.54, 185.51, 185.04, 179.61, 183.6, 183.0, 186.16, 189.91, 190.56, 192.56, 190.95, 191.49, 192.88, 188.06, 185.55, 185.65, 187.34, 185.76, 184.27, 188.08, 189.97, 188.01, 187.09, 185.52, 184.82, 186.03, 183.21, 180.54, 178.41, 177.74, 176.34, 178.07, 175.44, 176.43, 176.88, 180.66, 188.0, 191.08, 191.99, 191.99, 189.95, 191.29, 190.18, 188.55, 191.68, 189.93, 194.43, 192.85, 192.97, 190.78, 189.44, 192.52, 192.71, 192.91, 189.5, 188.82, 198.4, 200.43, 200.89, 200.09, 196.39, 195.36, 194.7, 195.59, 196.74, 195.67, 196.12, 196.33, 195.16, 195.64, 194.07, 194.94, 198.96, 205.36, 202.71, 205.18, 202.75, 202.74, 201.52, 207.42, 208.35, 207.11, 203.39, 206.18, 206.04, 201.79, 203.42, 203.4, 201.92, 201.09, 203.48, 201.91, 206.5, 207.87, 206.51, 210.02]</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>[31.0, 25.2, 28.3, 27.1, 25.7]</t>
+  </si>
+  <si>
+    <t>[53.5, 54.4, 55.0, 55.1, 54.3]</t>
+  </si>
+  <si>
+    <t>[45.3, 49.1, 45.3, 40.8, 32.6, 29.2, 24.0, 33.3, 47.2, 41.6, 36.3, 36.5, 28.3, 26.4, 24.4, 23.7, 21.1, 26.7, 39.6, 42.4, 43.0, 40.5, 33.6, 28.5, 31.2, 31.0, 25.2, 28.3, 27.1, 25.7]</t>
+  </si>
+  <si>
+    <t>[21.7, 18.2, 15.4, 13.8, 14.6, 17.0, 18.6, 22.0, 24.4, 26.6, 28.9, 30.2, 32.6, 36.2, 39.8, 44.7, 50.5, 55.9, 56.8, 54.9, 51.7, 49.5, 49.7, 51.1, 52.3, 53.5, 54.4, 55.0, 55.1, 54.3]</t>
+  </si>
+  <si>
+    <t>[29.8, 32.8, 34.9, 42.4, 39.6, 39.9, 38.8, 67.7, 75.0, 74.3, 71.6, 65.3, 64.5, 61.7, 57.8, 60.3, 45.0, 51.2, 48.3, 51.0, 48.6, 38.3, 36.7, 36.9, 38.9, 36.6, 41.0, 42.5, 47.9, 43.1, 55.2, 43.9, 55.5, 56.2, 59.1, 50.4, 48.9, 53.3, 46.4, 53.4, 50.3, 44.9, 35.8, 42.8, 59.0, 63.3, 48.4, 51.9, 55.9, 63.3, 56.3, 50.6, 53.6, 60.4, 60.8, 58.3, 50.1, 42.3, 38.6, 32.9, 37.6, 34.4, 33.8, 33.0, 30.6, 39.1, 37.0, 22.0, 23.0, 26.5, 37.1, 40.4, 35.4, 37.9, 39.1, 38.5, 36.0, 36.6, 47.7, 41.2, 51.9, 71.0, 74.7, 54.0, 46.2, 47.7, 46.6, 45.8, 47.3, 44.1, 45.3, 49.1, 45.3, 40.8, 32.6, 29.2, 24.0, 33.3, 47.2, 41.6, 36.3, 36.5, 28.3, 26.4, 24.4, 23.7, 21.1, 26.7, 39.6, 42.4, 43.0, 40.5, 33.6, 28.5, 31.2, 31.0, 25.2, 28.3, 27.1, 25.7]</t>
+  </si>
+  <si>
+    <t>[25.9, 27.2, 27.7, 26.5, 25.9, 25.8, 26.5, 27.5, 29.3, 31.0, 31.4, 31.4, 30.5, 30.2, 29.3, 28.9, 28.2, 28.6, 29.1, 29.9, 30.4, 29.3, 27.8, 26.6, 26.1, 26.1, 25.9, 27.3, 27.8, 29.4, 30.7, 31.4, 31.1, 30.4, 29.3, 27.8, 25.8, 23.9, 22.3, 20.6, 20.1, 17.7, 18.5, 19.1, 17.7, 17.5, 17.0, 17.3, 18.4, 20.0, 20.2, 19.2, 18.5, 18.8, 19.1, 19.0, 16.6, 13.8, 15.7, 17.8, 20.3, 22.8, 25.4, 26.5, 28.9, 31.9, 34.4, 38.1, 41.6, 45.5, 49.1, 52.5, 53.5, 53.1, 52.7, 52.8, 52.7, 53.2, 52.5, 51.5, 49.9, 46.0, 43.6, 39.3, 35.6, 32.2, 29.5, 28.5, 27.3, 24.7, 21.7, 18.2, 15.4, 13.8, 14.6, 17.0, 18.6, 22.0, 24.4, 26.6, 28.9, 30.2, 32.6, 36.2, 39.8, 44.7, 50.5, 55.9, 56.8, 54.9, 51.7, 49.5, 49.7, 51.1, 52.3, 53.5, 54.4, 55.0, 55.1, 54.3]</t>
+  </si>
+  <si>
+    <t>[48.84, 49.12, 48.66, 48.81, 49.4, 48.41, 48.11, 50.12, 50.89, 50.6, 50.53, 50.24, 49.77, 50.0, 49.93, 50.65, 47.66, 49.08, 49.03, 48.61, 47.82, 48.06, 48.6, 48.37, 48.6, 47.77, 48.13, 48.6, 49.51, 49.32, 48.45, 48.31, 49.88, 49.57, 49.15, 48.13, 48.43, 48.9, 47.96, 48.33, 48.18, 47.78, 47.37, 48.14, 50.12, 50.95, 49.56, 49.94, 50.31, 50.51, 49.64, 49.01, 48.62, 50.57, 50.48, 49.63, 47.39, 46.06, 47.22, 46.72, 46.82, 46.5, 46.78, 46.84, 45.15, 46.36, 45.29, 43.44, 43.57, 43.87, 44.61, 44.17, 44.56, 44.63, 44.9, 44.45, 44.31, 44.45, 44.8, 45.18, 45.52, 45.28, 46.04, 44.38, 44.17, 43.91, 44.18, 44.17, 44.6, 43.74, 43.75, 44.33, 44.22, 44.1, 43.34, 42.35, 42.63, 42.72, 43.84, 42.79, 42.28, 42.3, 41.38, 39.98, 39.38, 39.88, 38.71, 39.4, 41.06, 40.79, 41.18, 40.67, 40.65, 37.86, 38.09, 38.05, 34.57, 34.61, 33.47, 33.71]</t>
+  </si>
+  <si>
+    <t>KD</t>
+  </si>
+  <si>
+    <t>[21.7, 19.4, 26.2, 23.8, 40.5]</t>
+  </si>
+  <si>
+    <t>[42.1, 45.3, 49.3, 52.1, 52.6]</t>
+  </si>
+  <si>
+    <t>[64.1, 64.3, 66.2, 46.3, 31.9, 24.4, 41.6, 52.4, 56.9, 55.9, 53.8, 53.3, 48.7, 54.1, 47.6, 34.8, 31.3, 36.0, 38.6, 40.9, 35.8, 27.9, 23.4, 20.0, 19.2, 21.7, 19.4, 26.2, 23.8, 40.5]</t>
+  </si>
+  <si>
+    <t>[56.4, 56.3, 54.0, 48.0, 42.3, 38.6, 36.1, 33.5, 30.9, 29.7, 27.7, 26.2, 25.0, 23.3, 22.3, 23.4, 25.2, 28.4, 30.1, 29.6, 29.6, 30.3, 32.9, 35.4, 39.2, 42.1, 45.3, 49.3, 52.1, 52.6]</t>
+  </si>
+  <si>
+    <t>[24.4, 24.6, 26.3, 29.4, 31.6, 65.3, 62.1, 60.6, 57.0, 79.2, 66.8, 65.9, 69.3, 76.5, 76.6, 81.0, 69.3, 70.5, 56.7, 57.5, 53.9, 52.4, 49.7, 46.2, 53.2, 45.0, 47.2, 24.8, 13.3, 23.2, 26.3, 21.0, 33.6, 30.9, 38.4, 32.1, 37.0, 35.5, 24.0, 26.8, 26.7, 29.1, 33.9, 27.4, 31.8, 39.4, 32.6, 35.7, 31.9, 41.1, 38.3, 37.6, 60.6, 62.6, 60.6, 47.4, 38.5, 41.3, 37.0, 26.9, 26.8, 32.4, 28.7, 25.6, 20.7, 20.6, 20.3, 16.5, 24.9, 29.0, 42.3, 41.9, 46.1, 48.9, 49.7, 49.9, 55.8, 54.1, 70.9, 83.5, 86.2, 81.2, 74.0, 70.9, 65.6, 65.0, 63.3, 63.7, 68.6, 62.0, 64.1, 64.3, 66.2, 46.3, 31.9, 24.4, 41.6, 52.4, 56.9, 55.9, 53.8, 53.3, 48.7, 54.1, 47.6, 34.8, 31.3, 36.0, 38.6, 40.9, 35.8, 27.9, 23.4, 20.0, 19.2, 21.7, 19.4, 26.2, 23.8, 40.5]</t>
+  </si>
+  <si>
+    <t>[73.6, 73.9, 74.7, 74.7, 73.9, 70.9, 68.5, 65.7, 62.6, 62.6, 60.0, 58.6, 57.5, 56.7, 56.3, 56.2, 54.0, 52.0, 49.3, 47.7, 45.0, 42.4, 40.4, 35.5, 32.5, 30.1, 27.1, 26.2, 26.5, 26.8, 28.8, 30.2, 32.7, 34.9, 36.4, 39.0, 41.9, 44.2, 48.3, 52.3, 56.5, 57.3, 56.3, 55.6, 54.9, 53.6, 53.0, 53.3, 53.9, 53.3, 51.5, 50.1, 46.8, 42.8, 41.1, 37.1, 35.3, 33.1, 31.5, 32.1, 32.8, 32.4, 33.7, 35.5, 39.4, 43.3, 47.9, 51.8, 53.2, 57.2, 56.8, 54.8, 52.6, 49.2, 46.1, 43.4, 40.5, 38.3, 36.9, 37.8, 38.8, 40.3, 40.0, 40.3, 42.0, 45.0, 48.1, 50.9, 53.3, 55.2, 56.4, 56.3, 54.0, 48.0, 42.3, 38.6, 36.1, 33.5, 30.9, 29.7, 27.7, 26.2, 25.0, 23.3, 22.3, 23.4, 25.2, 28.4, 30.1, 29.6, 29.6, 30.3, 32.9, 35.4, 39.2, 42.1, 45.3, 49.3, 52.1, 52.6]</t>
+  </si>
+  <si>
+    <t>[30.35, 30.04, 30.32, 30.42, 31.2, 31.15, 31.27, 31.53, 31.51, 31.79, 31.18, 32.01, 31.77, 32.76, 33.14, 33.12, 32.4, 32.73, 31.95, 32.0, 31.72, 31.8, 31.48, 31.35, 31.52, 31.56, 31.53, 30.62, 29.45, 30.09, 30.03, 30.02, 30.51, 30.25, 30.63, 29.89, 30.11, 29.76, 27.68, 28.0, 27.95, 27.68, 27.5, 27.6, 27.93, 28.65, 28.3, 28.46, 28.49, 28.9, 28.85, 28.39, 28.41, 28.92, 28.75, 27.43, 26.14, 26.52, 26.36, 26.06, 25.68, 26.31, 25.59, 25.72, 24.12, 23.62, 23.57, 23.71, 24.53, 24.38, 25.11, 25.44, 25.83, 25.91, 25.64, 26.3, 26.27, 26.2, 25.98, 26.82, 27.47, 27.17, 26.92, 26.55, 26.51, 26.77, 26.95, 27.08, 27.16, 27.13, 27.28, 27.22, 27.1, 26.59, 26.56, 25.49, 26.28, 26.74, 27.09, 27.26, 27.25, 27.34, 27.05, 27.5, 27.05, 25.21, 24.33, 24.59, 24.88, 24.22, 24.45, 23.83, 23.7, 23.31, 23.0, 23.31, 22.21, 23.38, 22.07, 23.49]</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>[60.2, 63.1, 68.1, 67.3, 67.7]</t>
+  </si>
+  <si>
+    <t>[16.3, 15.6, 16.8, 17.6, 18.5]</t>
+  </si>
+  <si>
+    <t>[49.0, 52.7, 46.6, 48.8, 57.7, 55.0, 40.9, 43.6, 34.5, 24.6, 27.2, 42.3, 45.3, 50.8, 47.6, 49.7, 52.5, 56.4, 50.8, 55.5, 58.5, 51.5, 62.0, 59.7, 65.2, 60.2, 63.1, 68.1, 67.3, 67.7]</t>
+  </si>
+  <si>
+    <t>[55.3, 52.3, 48.8, 44.5, 40.8, 37.0, 35.1, 33.9, 33.6, 34.2, 34.7, 32.4, 29.8, 26.5, 27.2, 28.2, 29.2, 29.6, 29.4, 29.7, 28.4, 27.2, 24.5, 21.2, 17.9, 16.3, 15.6, 16.8, 17.6, 18.5]</t>
+  </si>
+  <si>
+    <t>[53.6, 57.4, 58.5, 51.8, 43.6, 45.4, 32.8, 30.2, 26.6, 28.0, 33.7, 42.1, 45.0, 40.0, 41.2, 33.4, 22.8, 25.7, 41.9, 33.2, 35.3, 42.5, 39.9, 34.5, 22.8, 32.1, 35.3, 35.4, 33.2, 42.6, 52.2, 46.1, 38.4, 42.6, 38.3, 49.6, 60.2, 59.3, 66.7, 59.3, 65.7, 65.9, 64.8, 62.0, 58.8, 55.2, 59.8, 60.4, 60.1, 55.6, 47.7, 42.7, 39.2, 35.4, 22.1, 24.5, 23.6, 24.8, 32.8, 36.0, 33.5, 35.4, 44.4, 45.4, 44.2, 58.3, 62.1, 63.9, 65.8, 54.0, 63.8, 65.6, 61.9, 65.4, 60.5, 54.9, 41.2, 35.1, 39.9, 32.4, 28.5, 36.6, 40.2, 43.9, 33.3, 37.5, 33.6, 31.4, 32.3, 34.5, 49.0, 52.7, 46.6, 48.8, 57.7, 55.0, 40.9, 43.6, 34.5, 24.6, 27.2, 42.3, 45.3, 50.8, 47.6, 49.7, 52.5, 56.4, 50.8, 55.5, 58.5, 51.5, 62.0, 59.7, 65.2, 60.2, 63.1, 68.1, 67.3, 67.7]</t>
+  </si>
+  <si>
+    <t>[14.3, 13.2, 12.7, 12.3, 13.9, 15.9, 18.6, 21.5, 24.5, 28.1, 31.3, 31.6, 32.2, 34.0, 36.8, 40.4, 45.0, 47.2, 46.7, 46.0, 43.6, 39.5, 34.8, 30.7, 29.3, 28.8, 28.1, 26.1, 24.0, 20.3, 16.7, 15.2, 14.8, 14.7, 15.4, 16.5, 17.0, 17.9, 17.1, 16.2, 16.6, 17.9, 19.3, 21.0, 20.4, 20.0, 19.3, 18.5, 17.1, 16.2, 17.1, 18.2, 19.5, 21.9, 26.2, 29.8, 33.3, 37.3, 41.1, 44.9, 48.3, 51.1, 52.9, 53.4, 52.9, 51.1, 50.2, 48.7, 44.6, 39.7, 34.6, 30.5, 27.2, 24.4, 21.3, 18.3, 18.6, 21.1, 23.7, 27.0, 30.0, 32.6, 34.4, 37.3, 40.2, 42.5, 45.4, 48.6, 52.6, 56.8, 55.3, 52.3, 48.8, 44.5, 40.8, 37.0, 35.1, 33.9, 33.6, 34.2, 34.7, 32.4, 29.8, 26.5, 27.2, 28.2, 29.2, 29.6, 29.4, 29.7, 28.4, 27.2, 24.5, 21.2, 17.9, 16.3, 15.6, 16.8, 17.6, 18.5]</t>
+  </si>
+  <si>
+    <t>[69.37, 70.34, 71.45, 71.04, 69.19, 69.77, 68.62, 67.62, 67.1, 67.48, 68.28, 67.84, 67.48, 67.39, 67.64, 67.27, 66.67, 66.87, 67.93, 67.05, 66.4, 66.6, 65.64, 65.23, 64.18, 65.0, 65.2, 65.14, 65.11, 66.08, 67.05, 66.16, 66.01, 65.95, 64.46, 66.53, 67.76, 67.2, 67.42, 66.77, 68.76, 68.73, 68.51, 68.62, 68.78, 67.24, 68.24, 68.3, 66.75, 67.67, 67.33, 65.69, 65.08, 63.29, 63.1, 63.42, 62.81, 63.09, 64.57, 64.1, 64.68, 65.05, 65.62, 66.71, 66.1, 67.38, 67.41, 65.9, 66.06, 64.29, 66.15, 67.03, 67.28, 67.55, 67.03, 66.2, 63.14, 62.71, 63.38, 62.9, 61.24, 62.21, 63.19, 62.66, 62.1, 63.81, 62.79, 62.41, 62.29, 62.3, 62.93, 63.25, 62.71, 62.68, 62.48, 62.96, 61.79, 61.74, 59.28, 59.79, 59.51, 61.11, 61.47, 62.46, 62.49, 63.19, 63.15, 63.92, 62.65, 64.25, 63.69, 62.11, 61.82, 61.75, 62.85, 63.06, 64.17, 66.8, 66.67, 67.5]</t>
+  </si>
+  <si>
+    <t>MNDY</t>
+  </si>
+  <si>
+    <t>[14.3, 13.2, 21.7, 13.8, 21.4]</t>
+  </si>
+  <si>
+    <t>[69.1, 71.0, 72.6, 74.2, 75.3]</t>
+  </si>
+  <si>
+    <t>[38.6, 34.6, 23.7, 22.4, 30.4, 21.1, 24.4, 42.0, 49.7, 56.0, 55.2, 48.5, 35.4, 29.7, 32.4, 28.1, 28.7, 29.1, 26.3, 32.1, 33.9, 23.0, 18.6, 15.3, 14.4, 14.3, 13.2, 21.7, 13.8, 21.4]</t>
+  </si>
+  <si>
+    <t>[21.0, 22.7, 25.9, 27.2, 29.2, 30.8, 31.5, 33.3, 33.9, 34.6, 35.2, 36.7, 40.6, 43.4, 45.4, 47.3, 47.3, 49.0, 50.3, 49.9, 50.1, 51.4, 55.2, 60.2, 65.2, 69.1, 71.0, 72.6, 74.2, 75.3]</t>
+  </si>
+  <si>
+    <t>[13.6, 13.6, 15.0, 16.2, 20.7, 20.2, 14.7, 20.7, 25.4, 69.5, 64.6, 56.9, 55.6, 59.7, 61.0, 66.6, 62.4, 67.2, 63.3, 67.5, 68.4, 56.0, 62.9, 67.6, 66.3, 69.6, 69.4, 63.6, 60.6, 55.2, 54.0, 45.5, 44.3, 44.2, 46.1, 44.8, 35.9, 30.0, 30.7, 27.8, 31.3, 30.5, 29.1, 35.9, 44.3, 56.2, 56.6, 59.3, 56.8, 67.8, 65.7, 55.3, 64.5, 68.3, 66.9, 60.3, 64.2, 49.5, 52.8, 34.0, 34.2, 27.2, 27.5, 26.2, 21.8, 25.5, 21.8, 15.0, 16.6, 19.0, 21.7, 24.3, 13.6, 32.0, 31.9, 42.4, 43.4, 46.1, 64.1, 62.0, 63.9, 72.8, 62.7, 56.6, 52.8, 49.7, 51.8, 46.5, 49.4, 40.5, 38.6, 34.6, 23.7, 22.4, 30.4, 21.1, 24.4, 42.0, 49.7, 56.0, 55.2, 48.5, 35.4, 29.7, 32.4, 28.1, 28.7, 29.1, 26.3, 32.1, 33.9, 23.0, 18.6, 15.3, 14.4, 14.3, 13.2, 21.7, 13.8, 21.4]</t>
+  </si>
+  <si>
+    <t>[63.9, 66.7, 69.2, 70.7, 71.0, 71.4, 74.1, 75.5, 75.9, 72.7, 68.1, 63.2, 57.6, 52.6, 48.2, 44.2, 40.1, 37.2, 34.3, 31.8, 28.3, 23.2, 19.5, 18.4, 18.7, 19.6, 22.1, 22.7, 22.3, 20.8, 20.0, 19.4, 19.5, 19.7, 18.7, 19.5, 20.7, 22.8, 24.2, 25.6, 26.3, 28.3, 31.0, 34.2, 35.1, 35.8, 36.4, 37.0, 38.3, 41.2, 43.4, 43.3, 43.8, 44.9, 45.7, 44.7, 43.8, 41.2, 40.3, 40.9, 41.2, 41.9, 43.6, 44.0, 44.6, 46.1, 47.5, 48.6, 50.1, 53.4, 56.3, 60.9, 66.3, 67.0, 68.6, 67.1, 64.0, 61.0, 58.3, 56.4, 53.1, 50.5, 48.0, 43.6, 39.0, 33.9, 28.1, 24.8, 20.4, 19.9, 21.0, 22.7, 25.9, 27.2, 29.2, 30.8, 31.5, 33.3, 33.9, 34.6, 35.2, 36.7, 40.6, 43.4, 45.4, 47.3, 47.3, 49.0, 50.3, 49.9, 50.1, 51.4, 55.2, 60.2, 65.2, 69.1, 71.0, 72.6, 74.2, 75.3]</t>
+  </si>
+  <si>
+    <t>[179.01, 176.09, 173.37, 171.46, 177.89, 175.39, 175.91, 181.8, 189.51, 193.0, 187.34, 185.17, 182.42, 185.73, 190.68, 193.63, 187.34, 191.8, 191.95, 193.49, 195.6, 188.39, 206.18, 219.15, 211.99, 215.42, 212.4, 207.28, 206.59, 201.57, 193.69, 184.32, 182.26, 183.57, 188.66, 178.96, 184.19, 190.61, 185.03, 185.65, 187.66, 180.91, 176.94, 181.58, 186.02, 192.28, 190.68, 196.23, 197.41, 198.78, 200.52, 195.94, 198.9, 205.24, 205.12, 192.67, 192.23, 181.02, 189.59, 166.21, 165.18, 159.11, 160.61, 160.54, 150.34, 153.18, 148.92, 145.23, 146.85, 145.24, 147.78, 144.97, 143.86, 149.91, 148.6, 152.52, 154.76, 156.94, 161.97, 162.51, 159.4, 161.86, 156.94, 151.06, 150.14, 144.67, 145.52, 147.08, 148.15, 145.09, 146.1, 145.78, 145.38, 145.32, 147.56, 143.42, 142.77, 146.91, 149.95, 147.67, 148.03, 146.35, 139.22, 130.33, 132.81, 126.7, 126.89, 127.13, 127.68, 129.32, 130.06, 125.28, 126.15, 115.57, 114.75, 112.82, 101.71, 104.8, 94.59, 98.0]</t>
+  </si>
+  <si>
+    <t>STM</t>
+  </si>
+  <si>
+    <t>[52.3, 47.1, 56.7, 54.4, 57.6]</t>
+  </si>
+  <si>
+    <t>[22.2, 19.0, 17.4, 15.6, 14.1]</t>
+  </si>
+  <si>
+    <t>[58.9, 55.8, 53.9, 53.6, 44.6, 64.9, 69.6, 78.4, 76.9, 71.1, 73.7, 68.3, 68.1, 62.4, 62.7, 62.3, 56.9, 63.2, 65.9, 60.1, 56.8, 49.7, 59.1, 53.3, 44.6, 52.3, 47.1, 56.7, 54.4, 57.6]</t>
+  </si>
+  <si>
+    <t>[62.7, 61.7, 60.5, 58.5, 55.0, 51.9, 48.5, 46.2, 45.9, 45.1, 44.7, 43.8, 43.3, 43.5, 44.0, 45.1, 44.5, 44.4, 46.2, 44.2, 42.0, 37.9, 33.6, 29.6, 25.7, 22.2, 19.0, 17.4, 15.6, 14.1]</t>
+  </si>
+  <si>
+    <t>[44.2, 48.3, 56.9, 60.6, 72.1, 71.7, 70.9, 71.0, 71.5, 69.0, 50.2, 46.8, 55.0, 60.1, 55.5, 50.6, 48.4, 52.0, 35.1, 47.4, 50.9, 50.2, 55.6, 55.7, 65.9, 71.5, 70.3, 61.1, 60.7, 67.5, 70.1, 68.8, 74.0, 67.5, 66.7, 58.8, 55.5, 59.6, 39.1, 50.9, 45.5, 54.4, 58.8, 57.6, 61.6, 62.6, 51.2, 36.7, 35.0, 40.0, 35.7, 34.8, 38.8, 28.8, 29.9, 22.6, 24.2, 23.6, 15.8, 14.6, 17.1, 36.5, 38.0, 25.4, 23.6, 24.2, 25.7, 20.0, 30.2, 37.3, 34.8, 39.9, 44.7, 44.4, 53.2, 62.2, 62.8, 68.3, 73.2, 78.0, 79.1, 94.2, 88.7, 89.4, 81.8, 75.7, 75.1, 74.7, 70.3, 55.4, 58.9, 55.8, 53.9, 53.6, 44.6, 64.9, 69.6, 78.4, 76.9, 71.1, 73.7, 68.3, 68.1, 62.4, 62.7, 62.3, 56.9, 63.2, 65.9, 60.1, 56.8, 49.7, 59.1, 53.3, 44.6, 52.3, 47.1, 56.7, 54.4, 57.6]</t>
+  </si>
+  <si>
+    <t>[48.8, 45.1, 41.6, 39.3, 38.5, 38.6, 37.8, 36.1, 34.4, 32.0, 28.5, 28.8, 29.2, 29.0, 28.6, 28.8, 28.5, 27.1, 26.7, 23.6, 20.4, 17.0, 13.2, 10.1, 12.5, 15.7, 18.9, 21.6, 23.5, 25.6, 27.8, 30.2, 30.4, 31.8, 33.8, 34.8, 34.9, 35.8, 35.1, 34.4, 33.8, 33.4, 31.9, 30.2, 27.8, 25.6, 23.6, 24.1, 25.0, 27.2, 30.4, 33.2, 34.5, 34.6, 34.5, 36.2, 40.0, 42.9, 48.2, 53.6, 58.0, 58.0, 57.4, 57.7, 58.4, 58.9, 59.4, 60.5, 61.6, 61.5, 60.8, 59.4, 55.5, 50.9, 45.6, 43.2, 41.4, 40.2, 39.2, 39.2, 39.6, 41.8, 44.1, 47.0, 49.0, 50.9, 53.7, 56.7, 60.4, 61.7, 62.7, 61.7, 60.5, 58.5, 55.0, 51.9, 48.5, 46.2, 45.9, 45.1, 44.7, 43.8, 43.3, 43.5, 44.0, 45.1, 44.5, 44.4, 46.2, 44.2, 42.0, 37.9, 33.6, 29.6, 25.7, 22.2, 19.0, 17.4, 15.6, 14.1]</t>
+  </si>
+  <si>
+    <t>[25.79, 25.7, 25.83, 25.71, 27.34, 27.13, 26.94, 26.98, 27.41, 26.81, 26.1, 25.63, 26.28, 26.68, 26.44, 25.78, 25.62, 25.98, 25.74, 26.8, 27.06, 27.01, 28.2, 27.62, 28.33, 28.56, 28.92, 28.2, 27.9, 27.99, 28.16, 28.26, 28.79, 28.69, 28.82, 28.06, 28.81, 28.6, 27.02, 28.7, 28.23, 28.87, 29.24, 29.15, 30.11, 30.44, 29.02, 25.17, 24.78, 25.38, 25.12, 24.6, 24.37, 24.39, 24.32, 23.34, 23.92, 23.56, 23.45, 23.65, 23.62, 23.92, 23.7, 23.26, 22.66, 22.26, 22.27, 21.13, 21.9, 22.0, 22.38, 22.57, 22.91, 23.08, 24.01, 25.72, 25.57, 25.91, 25.79, 25.85, 26.23, 26.17, 25.91, 26.37, 25.94, 25.55, 25.75, 25.82, 25.94, 26.06, 26.12, 26.24, 26.02, 26.06, 25.94, 27.37, 27.41, 29.41, 28.88, 28.04, 28.84, 28.35, 28.43, 27.88, 28.0, 28.03, 27.12, 28.52, 29.03, 29.05, 28.6, 29.36, 30.33, 28.62, 27.89, 28.77, 27.86, 29.33, 28.98, 29.85]</t>
+  </si>
+  <si>
+    <t>*昨日收盤價</t>
+  </si>
+  <si>
+    <t>*備註</t>
+  </si>
+  <si>
+    <t>*5天 RSI 序列</t>
+  </si>
+  <si>
+    <t>*5天 ADX 序列</t>
+  </si>
+  <si>
+    <t>*1個月 RSI 序列</t>
+  </si>
+  <si>
+    <t>*1個月 ADX 序列</t>
+  </si>
+  <si>
+    <t>*6個月 RSI 序列</t>
+  </si>
+  <si>
+    <t>*6個月 ADX 序列</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -447,13 +644,6 @@
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -826,18 +1016,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A127C1F3-5B38-4A66-BEBD-606F86090885}">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1"/>
+    <col min="16" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -866,69 +1062,102 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
+        <v>114</v>
+      </c>
+      <c r="V1" t="s">
+        <v>115</v>
+      </c>
+      <c r="W1" t="s">
+        <v>116</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y1" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB1" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" t="s">
-        <v>19</v>
-      </c>
       <c r="AE1" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="AF1" t="s">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="AG1" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="AH1" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="AI1" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="AJ1" t="s">
-        <v>25</v>
+        <v>182</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>46058</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>37</v>
@@ -954,6 +1183,21 @@
       <c r="J2">
         <v>84.63</v>
       </c>
+      <c r="K2">
+        <v>94.37</v>
+      </c>
+      <c r="L2">
+        <v>92</v>
+      </c>
+      <c r="M2">
+        <v>89.88</v>
+      </c>
+      <c r="N2">
+        <v>90</v>
+      </c>
+      <c r="O2">
+        <v>90</v>
+      </c>
       <c r="P2">
         <v>11.508921186340553</v>
       </c>
@@ -969,8 +1213,17 @@
       <c r="T2">
         <v>6.345267635590222</v>
       </c>
-      <c r="X2" s="4" t="s">
-        <v>108</v>
+      <c r="U2">
+        <v>6.2034739454094296</v>
+      </c>
+      <c r="V2">
+        <v>6.345267635590222</v>
+      </c>
+      <c r="W2">
+        <v>6.345267635590222</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0.14179369018079235</v>
       </c>
       <c r="Y2">
         <v>1</v>
@@ -988,30 +1241,39 @@
         <v>1</v>
       </c>
       <c r="AE2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AF2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AG2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AH2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="AJ2" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>46058</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>34</v>
@@ -1037,6 +1299,21 @@
       <c r="J3">
         <v>31.47</v>
       </c>
+      <c r="K3">
+        <v>33.19</v>
+      </c>
+      <c r="L3">
+        <v>32.119999999999997</v>
+      </c>
+      <c r="M3">
+        <v>32.049999999999997</v>
+      </c>
+      <c r="N3">
+        <v>33.229999999999997</v>
+      </c>
+      <c r="O3">
+        <v>33.229999999999997</v>
+      </c>
       <c r="P3">
         <v>5.4655227200508385</v>
       </c>
@@ -1052,8 +1329,17 @@
       <c r="T3">
         <v>5.5926278995869021</v>
       </c>
-      <c r="X3" s="4" t="s">
-        <v>109</v>
+      <c r="U3">
+        <v>1.843025103272953</v>
+      </c>
+      <c r="V3">
+        <v>5.5926278995869021</v>
+      </c>
+      <c r="W3">
+        <v>5.5926278995869021</v>
+      </c>
+      <c r="X3" s="4">
+        <v>3.7496027963139493</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -1071,30 +1357,39 @@
         <v>1</v>
       </c>
       <c r="AE3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AF3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AG3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AH3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AI3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="AJ3" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>46058</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>44</v>
@@ -1120,6 +1415,21 @@
       <c r="J4">
         <v>205.79</v>
       </c>
+      <c r="K4">
+        <v>219.4</v>
+      </c>
+      <c r="L4">
+        <v>218.85</v>
+      </c>
+      <c r="M4">
+        <v>215.9</v>
+      </c>
+      <c r="N4">
+        <v>224.88</v>
+      </c>
+      <c r="O4">
+        <v>224.88</v>
+      </c>
       <c r="P4">
         <v>6.61353807279266</v>
       </c>
@@ -1135,8 +1445,17 @@
       <c r="T4">
         <v>9.2764468633072568</v>
       </c>
-      <c r="X4" s="4" t="s">
-        <v>110</v>
+      <c r="U4">
+        <v>4.9127751591428224</v>
+      </c>
+      <c r="V4">
+        <v>9.2764468633072568</v>
+      </c>
+      <c r="W4">
+        <v>9.2764468633072568</v>
+      </c>
+      <c r="X4" s="4">
+        <v>4.3636717041644344</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -1154,30 +1473,39 @@
         <v>1</v>
       </c>
       <c r="AE4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AG4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="AH4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="AI4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>46058</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -1203,6 +1531,21 @@
       <c r="J5">
         <v>333.34</v>
       </c>
+      <c r="K5">
+        <v>312.52</v>
+      </c>
+      <c r="L5">
+        <v>313.2</v>
+      </c>
+      <c r="M5">
+        <v>306.92</v>
+      </c>
+      <c r="N5">
+        <v>326.55</v>
+      </c>
+      <c r="O5">
+        <v>322.36</v>
+      </c>
       <c r="P5">
         <v>-6.2458750824983484</v>
       </c>
@@ -1218,8 +1561,17 @@
       <c r="T5">
         <v>-3.2939341213175619</v>
       </c>
-      <c r="X5" s="4" t="s">
-        <v>111</v>
+      <c r="U5">
+        <v>-7.9258414831703243</v>
+      </c>
+      <c r="V5">
+        <v>-3.2939341213175619</v>
+      </c>
+      <c r="W5">
+        <v>-2.0369592608147729</v>
+      </c>
+      <c r="X5" s="4">
+        <v>5.8888822223555515</v>
       </c>
       <c r="Y5">
         <v>1</v>
@@ -1237,30 +1589,39 @@
         <v>0</v>
       </c>
       <c r="AE5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AF5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AG5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AI5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="AJ5" t="s">
-        <v>53</v>
+        <v>46</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>46059</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>22</v>
@@ -1286,6 +1647,21 @@
       <c r="J6">
         <v>52.48</v>
       </c>
+      <c r="K6">
+        <v>58.2</v>
+      </c>
+      <c r="L6">
+        <v>57.38</v>
+      </c>
+      <c r="M6">
+        <v>56.97</v>
+      </c>
+      <c r="N6">
+        <v>63.09</v>
+      </c>
+      <c r="O6">
+        <v>57.01</v>
+      </c>
       <c r="P6">
         <v>10.899390243902452</v>
       </c>
@@ -1301,8 +1677,17 @@
       <c r="T6">
         <v>8.6318597560975636</v>
       </c>
-      <c r="X6" s="4" t="s">
-        <v>112</v>
+      <c r="U6">
+        <v>8.5556402439024435</v>
+      </c>
+      <c r="V6">
+        <v>8.6318597560975636</v>
+      </c>
+      <c r="W6">
+        <v>20.217225609756113</v>
+      </c>
+      <c r="X6" s="4">
+        <v>11.66158536585367</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -1320,30 +1705,39 @@
         <v>1</v>
       </c>
       <c r="AE6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AG6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AH6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AI6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AJ6" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>46059</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>36</v>
@@ -1369,6 +1763,21 @@
       <c r="J7">
         <v>60.57</v>
       </c>
+      <c r="K7">
+        <v>65.64</v>
+      </c>
+      <c r="L7">
+        <v>66.760000000000005</v>
+      </c>
+      <c r="M7">
+        <v>62.9</v>
+      </c>
+      <c r="N7">
+        <v>67.45</v>
+      </c>
+      <c r="O7">
+        <v>60.34</v>
+      </c>
       <c r="P7">
         <v>8.3704804358593368</v>
       </c>
@@ -1384,8 +1793,17 @@
       <c r="T7">
         <v>-0.37972593693246964</v>
       </c>
-      <c r="X7" s="4" t="s">
-        <v>113</v>
+      <c r="U7">
+        <v>3.8467888393594163</v>
+      </c>
+      <c r="V7">
+        <v>-0.37972593693246964</v>
+      </c>
+      <c r="W7">
+        <v>11.358758461284468</v>
+      </c>
+      <c r="X7" s="4">
+        <v>7.5119696219250525</v>
       </c>
       <c r="Y7">
         <v>1</v>
@@ -1403,30 +1821,39 @@
         <v>1</v>
       </c>
       <c r="AE7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="AG7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="AH7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="AI7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="AJ7" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>46059</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -1452,6 +1879,21 @@
       <c r="J8">
         <v>222.69</v>
       </c>
+      <c r="K8">
+        <v>202</v>
+      </c>
+      <c r="L8">
+        <v>202.63</v>
+      </c>
+      <c r="M8">
+        <v>200.31</v>
+      </c>
+      <c r="N8">
+        <v>206.13</v>
+      </c>
+      <c r="O8">
+        <v>201.33</v>
+      </c>
       <c r="P8">
         <v>-9.2909425658987832</v>
       </c>
@@ -1467,8 +1909,17 @@
       <c r="T8">
         <v>-9.5918092415465388</v>
       </c>
-      <c r="X8" s="4" t="s">
-        <v>114</v>
+      <c r="U8">
+        <v>-10.049845076114776</v>
+      </c>
+      <c r="V8">
+        <v>-9.5918092415465388</v>
+      </c>
+      <c r="W8">
+        <v>-7.4363464906372094</v>
+      </c>
+      <c r="X8" s="4">
+        <v>2.6134985854775667</v>
       </c>
       <c r="Y8">
         <v>1</v>
@@ -1486,30 +1937,39 @@
         <v>-1</v>
       </c>
       <c r="AE8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AF8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AG8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AH8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AI8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s">
-        <v>85</v>
+        <v>77</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>46059</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -1535,6 +1995,21 @@
       <c r="J9">
         <v>151.05000000000001</v>
       </c>
+      <c r="K9">
+        <v>144</v>
+      </c>
+      <c r="L9">
+        <v>161.53</v>
+      </c>
+      <c r="M9">
+        <v>150.84</v>
+      </c>
+      <c r="N9">
+        <v>154.69999999999999</v>
+      </c>
+      <c r="O9">
+        <v>150.35</v>
+      </c>
       <c r="P9">
         <v>-4.6673286991062639</v>
       </c>
@@ -1550,8 +2025,17 @@
       <c r="T9">
         <v>-0.46342270771268917</v>
       </c>
-      <c r="X9" s="4" t="s">
-        <v>115</v>
+      <c r="U9">
+        <v>-0.13902681231380865</v>
+      </c>
+      <c r="V9">
+        <v>-0.46342270771268917</v>
+      </c>
+      <c r="W9">
+        <v>2.4164184045018056</v>
+      </c>
+      <c r="X9" s="4">
+        <v>2.5554452168156141</v>
       </c>
       <c r="Y9">
         <v>1</v>
@@ -1569,30 +2053,39 @@
         <v>1</v>
       </c>
       <c r="AE9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AF9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AJ9" t="s">
-        <v>92</v>
+        <v>84</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>46059</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C10">
         <v>36</v>
@@ -1618,6 +2111,21 @@
       <c r="J10">
         <v>36.28</v>
       </c>
+      <c r="K10">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="L10">
+        <v>36.11</v>
+      </c>
+      <c r="M10">
+        <v>35.49</v>
+      </c>
+      <c r="N10">
+        <v>36.68</v>
+      </c>
+      <c r="O10">
+        <v>35.57</v>
+      </c>
       <c r="P10">
         <v>5.5126791620716702E-2</v>
       </c>
@@ -1633,8 +2141,17 @@
       <c r="T10">
         <v>-1.9570011025358345</v>
       </c>
-      <c r="X10" s="4" t="s">
-        <v>116</v>
+      <c r="U10">
+        <v>-2.1775082690187411</v>
+      </c>
+      <c r="V10">
+        <v>-1.9570011025358345</v>
+      </c>
+      <c r="W10">
+        <v>1.1025358324145496</v>
+      </c>
+      <c r="X10" s="4">
+        <v>3.2800441014332904</v>
       </c>
       <c r="Y10">
         <v>1</v>
@@ -1652,30 +2169,39 @@
         <v>1</v>
       </c>
       <c r="AE10" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="AF10" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="AG10" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="AH10" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="AI10" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AJ10" t="s">
-        <v>99</v>
+        <v>91</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>46059</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C11">
         <v>39</v>
@@ -1701,6 +2227,21 @@
       <c r="J11">
         <v>106.99</v>
       </c>
+      <c r="K11">
+        <v>114.8</v>
+      </c>
+      <c r="L11">
+        <v>115.09</v>
+      </c>
+      <c r="M11">
+        <v>114.68</v>
+      </c>
+      <c r="N11">
+        <v>129.54</v>
+      </c>
+      <c r="O11">
+        <v>120.37</v>
+      </c>
       <c r="P11">
         <v>7.2997476399663546</v>
       </c>
@@ -1716,8 +2257,17 @@
       <c r="T11">
         <v>12.505841667445566</v>
       </c>
-      <c r="X11" s="4" t="s">
-        <v>117</v>
+      <c r="U11">
+        <v>7.1875876250116946</v>
+      </c>
+      <c r="V11">
+        <v>12.505841667445566</v>
+      </c>
+      <c r="W11">
+        <v>21.076736143564816</v>
+      </c>
+      <c r="X11" s="4">
+        <v>13.889148518553121</v>
       </c>
       <c r="Y11">
         <v>1</v>
@@ -1735,22 +2285,825 @@
         <v>0</v>
       </c>
       <c r="AE11" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AF11" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AG11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="AH11" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AI11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="AJ11" t="s">
-        <v>106</v>
+        <v>98</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>-0.1</v>
+      </c>
+      <c r="E12">
+        <v>5.5</v>
+      </c>
+      <c r="F12">
+        <v>-12.9</v>
+      </c>
+      <c r="G12">
+        <v>5.5</v>
+      </c>
+      <c r="H12">
+        <v>-12.9</v>
+      </c>
+      <c r="I12">
+        <v>13</v>
+      </c>
+      <c r="J12">
+        <v>133.03</v>
+      </c>
+      <c r="K12">
+        <v>135.41999999999999</v>
+      </c>
+      <c r="L12">
+        <v>134.34</v>
+      </c>
+      <c r="M12">
+        <v>134.25</v>
+      </c>
+      <c r="N12">
+        <v>140.08000000000001</v>
+      </c>
+      <c r="O12">
+        <v>139.04</v>
+      </c>
+      <c r="P12">
+        <v>1.7965872359618027</v>
+      </c>
+      <c r="Q12">
+        <v>0.98474028414643477</v>
+      </c>
+      <c r="R12">
+        <v>0.9170863714951506</v>
+      </c>
+      <c r="S12">
+        <v>5.2995564910170723</v>
+      </c>
+      <c r="T12">
+        <v>4.5177779448244682</v>
+      </c>
+      <c r="U12">
+        <v>0.9170863714951506</v>
+      </c>
+      <c r="V12">
+        <v>4.5177779448244682</v>
+      </c>
+      <c r="W12">
+        <v>5.2995564910170723</v>
+      </c>
+      <c r="X12">
+        <v>4.3824701195219218</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>0.95</v>
+      </c>
+      <c r="AB12">
+        <v>19.32</v>
+      </c>
+      <c r="AC12">
+        <v>86.04</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13">
+        <v>46</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>19.7</v>
+      </c>
+      <c r="J13">
+        <v>210.02</v>
+      </c>
+      <c r="K13">
+        <v>203.66</v>
+      </c>
+      <c r="L13">
+        <v>204</v>
+      </c>
+      <c r="M13">
+        <v>204</v>
+      </c>
+      <c r="N13">
+        <v>209.29</v>
+      </c>
+      <c r="O13">
+        <v>205.25</v>
+      </c>
+      <c r="P13">
+        <v>-3.0282830206647051</v>
+      </c>
+      <c r="Q13">
+        <v>-2.8663936767926912</v>
+      </c>
+      <c r="R13">
+        <v>-2.8663936767926912</v>
+      </c>
+      <c r="S13">
+        <v>-0.34758594419579952</v>
+      </c>
+      <c r="T13">
+        <v>-2.2712122654985287</v>
+      </c>
+      <c r="U13">
+        <v>-2.8663936767926912</v>
+      </c>
+      <c r="V13">
+        <v>-2.2712122654985287</v>
+      </c>
+      <c r="W13">
+        <v>-0.34758594419579952</v>
+      </c>
+      <c r="X13">
+        <v>2.5188077325968918</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>0.78</v>
+      </c>
+      <c r="AB13">
+        <v>3.19</v>
+      </c>
+      <c r="AC13">
+        <v>1.94</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>-11.4</v>
+      </c>
+      <c r="E14">
+        <v>0.7</v>
+      </c>
+      <c r="F14">
+        <v>-24</v>
+      </c>
+      <c r="G14">
+        <v>0.7</v>
+      </c>
+      <c r="H14">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="I14">
+        <v>0.7</v>
+      </c>
+      <c r="J14">
+        <v>33.71</v>
+      </c>
+      <c r="K14">
+        <v>38.75</v>
+      </c>
+      <c r="L14">
+        <v>38.29</v>
+      </c>
+      <c r="M14">
+        <v>36.71</v>
+      </c>
+      <c r="N14">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="O14">
+        <v>37.08</v>
+      </c>
+      <c r="P14">
+        <v>14.951053099970332</v>
+      </c>
+      <c r="Q14">
+        <v>13.58647285671907</v>
+      </c>
+      <c r="R14">
+        <v>8.8994363690299618</v>
+      </c>
+      <c r="S14">
+        <v>11.836250370809855</v>
+      </c>
+      <c r="T14">
+        <v>9.9970335212103159</v>
+      </c>
+      <c r="U14">
+        <v>8.8994363690299618</v>
+      </c>
+      <c r="V14">
+        <v>9.9970335212103159</v>
+      </c>
+      <c r="W14">
+        <v>11.836250370809855</v>
+      </c>
+      <c r="X14">
+        <v>2.9368140017798936</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>0.88</v>
+      </c>
+      <c r="AB14">
+        <v>7.32</v>
+      </c>
+      <c r="AC14">
+        <v>1.82</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>6.4</v>
+      </c>
+      <c r="F15">
+        <v>-14.6</v>
+      </c>
+      <c r="G15">
+        <v>6.4</v>
+      </c>
+      <c r="H15">
+        <v>-29.1</v>
+      </c>
+      <c r="I15">
+        <v>6.4</v>
+      </c>
+      <c r="J15">
+        <v>23.49</v>
+      </c>
+      <c r="K15">
+        <v>10.7</v>
+      </c>
+      <c r="L15">
+        <v>10.84</v>
+      </c>
+      <c r="M15">
+        <v>10.11</v>
+      </c>
+      <c r="N15">
+        <v>11.43</v>
+      </c>
+      <c r="O15">
+        <v>10.69</v>
+      </c>
+      <c r="P15">
+        <v>-54.448701575138358</v>
+      </c>
+      <c r="Q15">
+        <v>-53.852703277990635</v>
+      </c>
+      <c r="R15">
+        <v>-56.960408684546614</v>
+      </c>
+      <c r="S15">
+        <v>-51.340996168582379</v>
+      </c>
+      <c r="T15">
+        <v>-54.491272882077482</v>
+      </c>
+      <c r="U15">
+        <v>-56.960408684546614</v>
+      </c>
+      <c r="V15">
+        <v>-54.491272882077482</v>
+      </c>
+      <c r="W15">
+        <v>-51.340996168582379</v>
+      </c>
+      <c r="X15">
+        <v>5.6194125159642354</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>0.32</v>
+      </c>
+      <c r="AB15">
+        <v>-13.33</v>
+      </c>
+      <c r="AC15">
+        <v>-0.77</v>
+      </c>
+      <c r="AD15">
+        <v>-1</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16">
+        <v>44</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>13.9</v>
+      </c>
+      <c r="H16">
+        <v>-5.5</v>
+      </c>
+      <c r="I16">
+        <v>13.9</v>
+      </c>
+      <c r="J16">
+        <v>67.5</v>
+      </c>
+      <c r="K16">
+        <v>71.5</v>
+      </c>
+      <c r="L16">
+        <v>71.25</v>
+      </c>
+      <c r="M16">
+        <v>71</v>
+      </c>
+      <c r="N16">
+        <v>73.180000000000007</v>
+      </c>
+      <c r="O16">
+        <v>70.86</v>
+      </c>
+      <c r="P16">
+        <v>5.9259259259259265</v>
+      </c>
+      <c r="Q16">
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="R16">
+        <v>5.1851851851851851</v>
+      </c>
+      <c r="S16">
+        <v>8.4148148148148252</v>
+      </c>
+      <c r="T16">
+        <v>4.977777777777777</v>
+      </c>
+      <c r="U16">
+        <v>5.1851851851851851</v>
+      </c>
+      <c r="V16">
+        <v>4.977777777777777</v>
+      </c>
+      <c r="W16">
+        <v>8.4148148148148252</v>
+      </c>
+      <c r="X16">
+        <v>3.2296296296296401</v>
+      </c>
+      <c r="Y16">
+        <v>2</v>
+      </c>
+      <c r="Z16">
+        <v>0.88</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>158</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>-13.1</v>
+      </c>
+      <c r="E17">
+        <v>3.6</v>
+      </c>
+      <c r="F17">
+        <v>-34.6</v>
+      </c>
+      <c r="G17">
+        <v>3.6</v>
+      </c>
+      <c r="H17">
+        <v>-55.3</v>
+      </c>
+      <c r="I17">
+        <v>3.6</v>
+      </c>
+      <c r="J17">
+        <v>98</v>
+      </c>
+      <c r="K17">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="L17">
+        <v>77.3</v>
+      </c>
+      <c r="M17">
+        <v>73.12</v>
+      </c>
+      <c r="N17">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="O17">
+        <v>76.42</v>
+      </c>
+      <c r="P17">
+        <v>-21.020408163265301</v>
+      </c>
+      <c r="Q17">
+        <v>-21.122448979591841</v>
+      </c>
+      <c r="R17">
+        <v>-25.38775510204081</v>
+      </c>
+      <c r="S17">
+        <v>-17.448979591836729</v>
+      </c>
+      <c r="T17">
+        <v>-22.020408163265305</v>
+      </c>
+      <c r="U17">
+        <v>-25.38775510204081</v>
+      </c>
+      <c r="V17">
+        <v>-22.020408163265305</v>
+      </c>
+      <c r="W17">
+        <v>-17.448979591836729</v>
+      </c>
+      <c r="X17">
+        <v>7.9387755102040813</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>0.25</v>
+      </c>
+      <c r="AB17">
+        <v>13.04</v>
+      </c>
+      <c r="AC17">
+        <v>1.34</v>
+      </c>
+      <c r="AD17">
+        <v>-1</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>7.1</v>
+      </c>
+      <c r="F18">
+        <v>-1.6</v>
+      </c>
+      <c r="G18">
+        <v>15.1</v>
+      </c>
+      <c r="H18">
+        <v>-1.9</v>
+      </c>
+      <c r="I18">
+        <v>41.3</v>
+      </c>
+      <c r="J18">
+        <v>29.85</v>
+      </c>
+      <c r="K18">
+        <v>31.86</v>
+      </c>
+      <c r="L18">
+        <v>32</v>
+      </c>
+      <c r="M18">
+        <v>31.96</v>
+      </c>
+      <c r="N18">
+        <v>32.71</v>
+      </c>
+      <c r="O18">
+        <v>32.1</v>
+      </c>
+      <c r="P18">
+        <v>6.7336683417085359</v>
+      </c>
+      <c r="Q18">
+        <v>7.20268006700167</v>
+      </c>
+      <c r="R18">
+        <v>7.0686767169179205</v>
+      </c>
+      <c r="S18">
+        <v>9.5812395309882721</v>
+      </c>
+      <c r="T18">
+        <v>7.5376884422110546</v>
+      </c>
+      <c r="U18">
+        <v>7.0686767169179205</v>
+      </c>
+      <c r="V18">
+        <v>7.5376884422110546</v>
+      </c>
+      <c r="W18">
+        <v>9.5812395309882721</v>
+      </c>
+      <c r="X18">
+        <v>2.5125628140703515</v>
+      </c>
+      <c r="Y18">
+        <v>2</v>
+      </c>
+      <c r="Z18">
+        <v>0.92</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1774,42 +3127,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
